--- a/result/多源域迁移算法对比.xlsx
+++ b/result/多源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52918546-3E91-4D58-8E5A-1E7FB5476CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDE6D8-F4AD-454E-B35D-AB0202B95761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>方法\指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>DA-LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略五：DANN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +185,18 @@
   </si>
   <si>
     <t>KL LOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDW-DANN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDW-DANN-消融实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDW-DANN-CORAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,6 +401,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,42 +735,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="28"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
+      <c r="A2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -795,7 +809,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -863,7 +877,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -899,7 +913,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -935,7 +949,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1001,7 +1015,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1037,7 +1051,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1108,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1138,7 +1152,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1180,7 +1194,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1219,7 +1233,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1288,7 +1302,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1327,7 +1341,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1381,7 +1395,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1422,7 +1436,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1461,7 +1475,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1500,7 +1514,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1539,7 +1553,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1578,7 +1592,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1646,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1673,7 +1687,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1712,7 +1726,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1748,7 +1762,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1784,7 +1798,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1820,7 +1834,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1895,49 +1909,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.06640625" customWidth="1"/>
     <col min="2" max="2" width="14.06640625" customWidth="1"/>
-    <col min="3" max="7" width="9.06640625" customWidth="1"/>
+    <col min="3" max="7" width="9.06640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.53125" customWidth="1"/>
-    <col min="9" max="11" width="9.06640625" customWidth="1"/>
-    <col min="12" max="12" width="6.19921875" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" customWidth="1"/>
+    <col min="9" max="12" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.46484375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.59765625" customWidth="1"/>
+    <col min="19" max="19" width="9.46484375" customWidth="1"/>
+    <col min="20" max="20" width="15.53125" customWidth="1"/>
+    <col min="25" max="25" width="9.46484375" customWidth="1"/>
+    <col min="26" max="26" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1963,9 +1997,7 @@
       <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="10">
-        <v>2</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="10">
         <v>3</v>
       </c>
@@ -1978,469 +2010,631 @@
       <c r="N2" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="O2" s="27">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27">
+        <v>3</v>
+      </c>
+      <c r="R2" s="27">
+        <v>4</v>
+      </c>
+      <c r="S2" s="28">
+        <v>5</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="27">
+        <v>1</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27">
+        <v>3</v>
+      </c>
+      <c r="X2" s="27">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="28">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>0.76939536631107297</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.81808930635452204</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.84300550818443298</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.83082827925682001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.77960786223411505</v>
-      </c>
+        <v>0.8081852644681925</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="0">AVERAGE(C3:G3)</f>
         <v>0.8081852644681925</v>
       </c>
       <c r="I3" s="4">
-        <v>0.83095882833003998</v>
+        <v>0.73473906517028797</v>
       </c>
       <c r="J3" s="4">
-        <v>0.83143350481987</v>
+        <v>0.82946909964084603</v>
       </c>
       <c r="K3" s="4">
-        <v>0.82675261795520705</v>
+        <v>0.83141124248504605</v>
       </c>
       <c r="L3" s="4">
-        <v>0.78478340804576796</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.83985452353954304</v>
-      </c>
-      <c r="N3" s="7">
+        <v>0.80450080335140195</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6">
         <f t="shared" ref="N3:N12" si="1">AVERAGE(I3:M3)</f>
-        <v>0.82275657653808554</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
+        <v>0.80003005266189542</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.81821550428867296</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="7">
+        <f t="shared" ref="T3:T12" si="2">AVERAGE(O3:S3)</f>
+        <v>0.81821550428867296</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0.81821550428867296</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0.81057986617088296</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0.82680846750736203</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="7">
+        <f t="shared" ref="Z3:Z12" si="3">AVERAGE(U3:Y3)</f>
+        <v>0.81853461265563932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" s="30"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5">
-        <v>0.13198372721672</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.107326127588748</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8.9754894375801003E-2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>9.9686786532401997E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.131305381655693</v>
-      </c>
+        <v>0.11201138347387281</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>0.11201138347387281</v>
       </c>
       <c r="I4" s="5">
-        <v>0.101020067930221</v>
+        <v>0.14244391024112699</v>
       </c>
       <c r="J4" s="5">
-        <v>9.9842026829719502E-2</v>
+        <v>0.100569583475589</v>
       </c>
       <c r="K4" s="5">
-        <v>0.105225771665573</v>
+        <v>0.103497587144374</v>
       </c>
       <c r="L4" s="5">
-        <v>0.14790673553943601</v>
-      </c>
-      <c r="M4" s="5">
-        <v>9.3815878033638E-2</v>
-      </c>
-      <c r="N4" s="8">
+        <v>0.108866535127162</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="9">
         <f t="shared" si="1"/>
-        <v>0.10956209599971749</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+        <v>0.113844403997063</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.102587327361106</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.102587327361106</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.102587327361106</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.110930979251861</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.101600743830204</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10503968348105701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>0.79622487723827295</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.79223164916038502</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.81715756654739302</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.80142445862293199</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.78496521711349398</v>
-      </c>
-      <c r="H5" s="7">
+        <v>0.79840075373649533</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>0.79840075373649533</v>
       </c>
       <c r="I5" s="4">
-        <v>0.77319745719432798</v>
+        <v>0.71656578779220503</v>
       </c>
       <c r="J5" s="4">
-        <v>0.80133433640003204</v>
+        <v>0.797238528728485</v>
       </c>
       <c r="K5" s="4">
-        <v>0.756935894489288</v>
+        <v>0.78716611862182595</v>
       </c>
       <c r="L5" s="4">
-        <v>0.73766061663627602</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.79159116744995095</v>
-      </c>
-      <c r="N5" s="4">
+        <v>0.78525076806545202</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>0.77214389443397502</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
+        <v>0.77155530080199208</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.79228344559669495</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.79228344559669495</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.79228344559669495</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.78656107187271096</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.82267659902572599</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="7">
+        <f t="shared" si="3"/>
+        <v>0.8005070388317107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>0.122062422335147</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.125778958201408</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.10808023065328499</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.11743460595607701</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.126244202256202</v>
-      </c>
-      <c r="H6" s="8">
+        <v>0.11992008388042381</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>0.11992008388042381</v>
       </c>
       <c r="I6" s="5">
-        <v>0.12915068864822299</v>
+        <v>0.151442125439643</v>
       </c>
       <c r="J6" s="5">
-        <v>0.124284483492374</v>
+        <v>0.11820410192012699</v>
       </c>
       <c r="K6" s="5">
-        <v>0.13907678425312001</v>
+        <v>0.123568385839462</v>
       </c>
       <c r="L6" s="5">
-        <v>0.15289708971977201</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.123699866235256</v>
-      </c>
-      <c r="N6" s="5">
+        <v>0.122050613164901</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>0.13382178246974899</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+        <v>0.12881630659103324</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.117394886910915</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.117394886910915</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.117394886910915</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.12320835143327701</v>
+      </c>
+      <c r="W6" s="5">
+        <v>8.6495868861675207E-2</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10903303573528907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>0.81278301775455397</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.87121711671352298</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.87737820297479596</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.88057963550090701</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.83617192506790095</v>
-      </c>
-      <c r="H7" s="7">
+        <v>0.85562597960233622</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>0.85562597960233622</v>
       </c>
       <c r="I7" s="4">
-        <v>0.77218112349510104</v>
+        <v>0.82830144464969602</v>
       </c>
       <c r="J7" s="4">
-        <v>0.84004965424537603</v>
+        <v>0.86781883239746005</v>
       </c>
       <c r="K7" s="4">
-        <v>0.72900107502937295</v>
+        <v>0.87996298819780305</v>
       </c>
       <c r="L7" s="4">
-        <v>0.71565091609954801</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.82757604122161799</v>
-      </c>
-      <c r="N7" s="4">
+        <v>0.86820442974567402</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>0.7768917620182032</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
+        <v>0.86107192374765829</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.884153433144092</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.884153433144092</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.884153433144092</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.87448276579380002</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.84933581948280301</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.86932400614023164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="30"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>0.115167461335659</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9.3956239521503407E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>9.0527206659317003E-2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>9.48228910565376E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.111189775168895</v>
-      </c>
-      <c r="H8" s="8">
+        <v>0.1011327147483824</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>0.1011327147483824</v>
       </c>
       <c r="I8" s="5">
-        <v>0.15049494802951799</v>
+        <v>0.118060700595378</v>
       </c>
       <c r="J8" s="5">
-        <v>0.114996448159217</v>
+        <v>9.6477814018726293E-2</v>
       </c>
       <c r="K8" s="5">
-        <v>0.171702355146408</v>
+        <v>8.9917473495006506E-2</v>
       </c>
       <c r="L8" s="5">
-        <v>0.179414257407188</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.119667388498783</v>
-      </c>
-      <c r="N8" s="5">
+        <v>9.7500488162040697E-2</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="9">
         <f t="shared" si="1"/>
-        <v>0.14725507944822278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
+        <v>0.10048911906778787</v>
+      </c>
+      <c r="O8" s="5">
+        <v>8.9287899434566498E-2</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="8">
+        <f t="shared" si="2"/>
+        <v>8.9287899434566498E-2</v>
+      </c>
+      <c r="U8" s="5">
+        <v>8.9287899434566498E-2</v>
+      </c>
+      <c r="V8" s="5">
+        <v>9.2565760016441304E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.106815062463283</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="8">
+        <f t="shared" si="3"/>
+        <v>9.6222907304763586E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>0.81664451956748896</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.81411790847778298</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.84305845201015395</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.83829860389232602</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.80135330557823103</v>
-      </c>
-      <c r="H9" s="7">
+        <v>0.82269455790519663</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>0.82269455790519663</v>
       </c>
       <c r="I9" s="4">
-        <v>0.73639348149299599</v>
+        <v>0.76638956367969502</v>
       </c>
       <c r="J9" s="4">
-        <v>0.79520238935947396</v>
+        <v>0.84839338064193703</v>
       </c>
       <c r="K9" s="4">
-        <v>0.716597199440002</v>
+        <v>0.83068385720252902</v>
       </c>
       <c r="L9" s="4">
-        <v>0.73445528745651201</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.79547171294689101</v>
-      </c>
-      <c r="N9" s="4">
+        <v>0.809156134724617</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>0.75562401413917502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
+        <v>0.81365573406219449</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.83194474875926905</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.83194474875926905</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.83194474875926905</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.82540787756443001</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0.83173631131648995</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.82969631254672971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>0.106597453355789</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.10574118793010701</v>
-      </c>
-      <c r="E10" s="5">
-        <v>9.0006202459335299E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>9.5198303461074801E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.11345387250185</v>
-      </c>
-      <c r="H10" s="8">
+        <v>0.10219940394163123</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>0.10219940394163123</v>
       </c>
       <c r="I10" s="5">
-        <v>0.13061694800853699</v>
+        <v>0.13209502398967701</v>
       </c>
       <c r="J10" s="5">
-        <v>0.118970118463039</v>
+        <v>9.3867197632789598E-2</v>
       </c>
       <c r="K10" s="5">
-        <v>0.14990605413913699</v>
+        <v>0.10090688616037299</v>
       </c>
       <c r="L10" s="5">
-        <v>0.158397406339645</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.11587718874216001</v>
-      </c>
-      <c r="N10" s="5">
+        <v>0.108506880700588</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
-        <v>0.1347535431385036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+        <v>0.10884399712085691</v>
+      </c>
+      <c r="O10" s="5">
+        <v>9.7452804446220398E-2</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="8">
+        <f t="shared" si="2"/>
+        <v>9.7452804446220398E-2</v>
+      </c>
+      <c r="U10" s="5">
+        <v>9.7452804446220398E-2</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0.10474764555692601</v>
+      </c>
+      <c r="W10" s="5">
+        <v>9.9530018866062095E-2</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10057682295640284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4">
-        <v>0.77240590751171101</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.80760942399501801</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.84526444971561399</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.83194327354431097</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.75448109209537495</v>
-      </c>
-      <c r="H11" s="7">
+        <v>0.80234082937240581</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>0.80234082937240581</v>
       </c>
       <c r="I11" s="4">
-        <v>0.79686246812343597</v>
+        <v>0.72866430878639199</v>
       </c>
       <c r="J11" s="4">
-        <v>0.81461410224437703</v>
+        <v>0.82495115697383803</v>
       </c>
       <c r="K11" s="4">
-        <v>0.757641181349754</v>
+        <v>0.80118586122989599</v>
       </c>
       <c r="L11" s="4">
-        <v>0.68752440810203497</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.80764935910701696</v>
-      </c>
-      <c r="N11" s="4">
+        <v>0.81819874048232999</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6">
         <f t="shared" si="1"/>
-        <v>0.77285830378532383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="28"/>
+        <v>0.79325001686811403</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.82290534675121296</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82290534675121296</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.82290534675121296</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.80907231569290095</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.79710821807384402</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.8096952935059859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="30"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>0.119901746511459</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.10475037992000499</v>
-      </c>
-      <c r="E12" s="5">
-        <v>7.8069858253002097E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>8.7936185300350106E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.12612119317054701</v>
-      </c>
-      <c r="H12" s="8">
+        <v>0.10335587263107264</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>0.10335587263107264</v>
       </c>
       <c r="I12" s="5">
-        <v>0.114141002297401</v>
+        <v>0.136337339878082</v>
       </c>
       <c r="J12" s="5">
-        <v>9.95537415146827E-2</v>
+        <v>8.8090837001800495E-2</v>
       </c>
       <c r="K12" s="5">
-        <v>0.13914850354194599</v>
+        <v>9.7107909619808197E-2</v>
       </c>
       <c r="L12" s="5">
-        <v>0.16934919357299799</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0.108260847628116</v>
-      </c>
-      <c r="N12" s="5">
+        <v>9.2791803181171403E-2</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="9">
         <f t="shared" si="1"/>
-        <v>0.12609065771102873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+        <v>0.10358197242021552</v>
+      </c>
+      <c r="O12" s="5">
+        <v>8.8504336774349199E-2</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="8">
+        <f t="shared" si="2"/>
+        <v>8.8504336774349199E-2</v>
+      </c>
+      <c r="U12" s="5">
+        <v>8.8504336774349199E-2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0.100506424903869</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0.12022029608488</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10307701925436608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2451,7 +2645,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f>AVERAGE(H3,H5,H7,H9,H11)</f>
         <v>0.81744947701692516</v>
       </c>
@@ -2462,11 +2656,29 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4">
         <f>AVERAGE(N3,N5,N7,N9,N11)</f>
-        <v>0.78005491018295259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="28"/>
+        <v>0.80791260562837086</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4">
+        <f>AVERAGE(T3,T5,T7,T9,T11)</f>
+        <v>0.82990049570798841</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
+        <f>AVERAGE(Z3,Z5,Z7,Z9,Z11)</f>
+        <v>0.82555145273605945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2687,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <f>AVERAGE(H4,H6,H8,H10,H12)</f>
         <v>0.10772389173507657</v>
       </c>
@@ -2486,23 +2698,114 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5">
         <f>AVERAGE(N4,N6,N8,N10,N12)</f>
-        <v>0.13029663175344433</v>
+        <v>0.11111515983939131</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
+        <f>AVERAGE(T4,T6,T8,T10,T12)</f>
+        <v>9.9045450985431424E-2</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5">
+        <f>AVERAGE(Z4,Z6,Z8,Z10,Z12)</f>
+        <v>0.10278989374637573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="I15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="U15" s="4">
+        <v>0.82251240313053098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="I16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="U16" s="5">
+        <v>0.10481353849172501</v>
+      </c>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="U17" s="4">
+        <v>0.76653526723384802</v>
+      </c>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="U18" s="5">
+        <v>0.12741479277610701</v>
+      </c>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="U19" s="4">
+        <v>0.84572340548038405</v>
+      </c>
+    </row>
+    <row r="20" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="U20" s="5">
+        <v>0.10877938568591999</v>
+      </c>
+    </row>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="U21" s="4">
+        <v>0.83173631131648995</v>
+      </c>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="U22" s="5">
+        <v>9.9530018866062095E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="U23" s="4">
+        <v>0.80071045458316803</v>
+      </c>
+    </row>
+    <row r="24" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="I24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="U24" s="5">
+        <v>0.10070235282182601</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="O1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2520,36 +2823,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32"/>
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="16">
         <v>6.8000000000000005E-2</v>
@@ -2566,7 +2869,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="18">
         <v>0.04</v>
@@ -2583,7 +2886,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18">
         <v>0.06</v>
@@ -2600,7 +2903,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="18">
         <v>4.3999999999999997E-2</v>
@@ -2617,7 +2920,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="21">
         <v>2.9000000000000001E-2</v>
@@ -2663,32 +2966,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>5.4177246056497097E-3</v>

--- a/result/多源域迁移算法对比.xlsx
+++ b/result/多源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDE6D8-F4AD-454E-B35D-AB0202B95761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA072E-5CE6-4A27-B78F-43770C94F4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,11 +192,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FDW-DANN-消融实验</t>
+    <t>实验二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FDW-DANN-CORAL</t>
+    <t>实验三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,15 +267,27 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -319,11 +331,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,12 +379,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,12 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,6 +438,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,42 +819,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="30"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
+      <c r="A2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -809,7 +893,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -877,7 +961,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -913,7 +997,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -949,7 +1033,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1015,7 +1099,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1051,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1192,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1152,7 +1236,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1194,7 +1278,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1233,7 +1317,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1302,7 +1386,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1341,7 +1425,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1479,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1436,7 +1520,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1475,7 +1559,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1514,7 +1598,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1553,7 +1637,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1592,7 +1676,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1646,7 +1730,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1687,7 +1771,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="29"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1726,7 +1810,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1762,7 +1846,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="29"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1798,7 +1882,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1834,7 +1918,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1909,885 +1993,966 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.06640625" customWidth="1"/>
-    <col min="2" max="2" width="14.06640625" customWidth="1"/>
-    <col min="3" max="7" width="9.06640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" customWidth="1"/>
-    <col min="9" max="12" width="9.06640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.59765625" customWidth="1"/>
-    <col min="19" max="19" width="9.46484375" customWidth="1"/>
-    <col min="20" max="20" width="15.53125" customWidth="1"/>
-    <col min="25" max="25" width="9.46484375" customWidth="1"/>
-    <col min="26" max="26" width="15.53125" customWidth="1"/>
+    <col min="1" max="1" width="17.06640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="14.06640625" style="33" customWidth="1"/>
+    <col min="3" max="7" width="9.06640625" style="33" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" style="33" customWidth="1"/>
+    <col min="9" max="12" width="9.06640625" style="47" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.46484375" style="47" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.73046875" style="47" customWidth="1"/>
+    <col min="15" max="18" width="9.06640625" style="53" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.46484375" style="53" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.73046875" style="53" customWidth="1"/>
+    <col min="21" max="24" width="9.06640625" style="47" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.46484375" style="47" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.9296875" style="47" customWidth="1"/>
+    <col min="27" max="16384" width="9.06640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="35">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="35">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="35">
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="34">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="41">
         <v>1</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41">
         <v>3</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="41">
         <v>4</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="42">
         <v>5</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="49">
         <v>1</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49">
         <v>3</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="49">
         <v>4</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="50">
         <v>5</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="41">
         <v>1</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27">
+      <c r="V2" s="41"/>
+      <c r="W2" s="41">
         <v>3</v>
       </c>
-      <c r="X2" s="27">
+      <c r="X2" s="41">
         <v>4</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="42">
         <v>5</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="36">
         <v>0.8081852644681925</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37">
         <f t="shared" ref="H3:H12" si="0">AVERAGE(C3:G3)</f>
         <v>0.8081852644681925</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="43">
         <v>0.73473906517028797</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="43">
         <v>0.82946909964084603</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="43">
         <v>0.83141124248504605</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="43">
         <v>0.80450080335140195</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="6">
+      <c r="M3" s="43"/>
+      <c r="N3" s="44">
         <f t="shared" ref="N3:N12" si="1">AVERAGE(I3:M3)</f>
         <v>0.80003005266189542</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="51">
+        <v>0.81128679215907995</v>
+      </c>
+      <c r="P3" s="51">
+        <v>0.81846974790096205</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>0.78825367987155903</v>
+      </c>
+      <c r="R3" s="51">
+        <v>0.83287416398525205</v>
+      </c>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51">
+        <f>AVERAGE(O3:S3)</f>
+        <v>0.81272109597921327</v>
+      </c>
+      <c r="U3" s="43">
         <v>0.81821550428867296</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="7">
-        <f t="shared" ref="T3:T12" si="2">AVERAGE(O3:S3)</f>
-        <v>0.81821550428867296</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0.81821550428867296</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="V3" s="43">
         <v>0.81057986617088296</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="43">
         <v>0.82680846750736203</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="7">
-        <f t="shared" ref="Z3:Z12" si="3">AVERAGE(U3:Y3)</f>
-        <v>0.81853461265563932</v>
+      <c r="X3" s="43">
+        <v>0.82251240313053098</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>0.80669140815734797</v>
+      </c>
+      <c r="Z3" s="54">
+        <f t="shared" ref="Z3:Z12" si="2">AVERAGE(U3:Y3)</f>
+        <v>0.81696152985095938</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="38">
         <v>0.11201138347387281</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39">
         <f t="shared" si="0"/>
         <v>0.11201138347387281</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="45">
         <v>0.14244391024112699</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="45">
         <v>0.100569583475589</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="45">
         <v>0.103497587144374</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="45">
         <v>0.108866535127162</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="9">
+      <c r="M4" s="45"/>
+      <c r="N4" s="46">
         <f t="shared" si="1"/>
         <v>0.113844403997063</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="52">
+        <v>0.110524982213974</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0.113219298422336</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>0.117301158607006</v>
+      </c>
+      <c r="R4" s="52">
+        <v>9.8519250750541604E-2</v>
+      </c>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52">
+        <f>AVERAGE(O4:S4)</f>
+        <v>0.10989117249846439</v>
+      </c>
+      <c r="U4" s="45">
         <v>0.102587327361106</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="8">
+      <c r="V4" s="45">
+        <v>0.110930979251861</v>
+      </c>
+      <c r="W4" s="45">
+        <v>0.101600743830204</v>
+      </c>
+      <c r="X4" s="45">
+        <v>0.10481353849172501</v>
+      </c>
+      <c r="Y4" s="45">
+        <v>0.106981217861175</v>
+      </c>
+      <c r="Z4" s="55">
         <f t="shared" si="2"/>
-        <v>0.102587327361106</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0.102587327361106</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0.110930979251861</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.101600743830204</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="8">
-        <f t="shared" si="3"/>
-        <v>0.10503968348105701</v>
+        <v>0.10538276135921421</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="36">
         <v>0.79840075373649533</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37">
         <f t="shared" si="0"/>
         <v>0.79840075373649533</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="43">
         <v>0.71656578779220503</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="43">
         <v>0.797238528728485</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="43">
         <v>0.78716611862182595</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="43">
         <v>0.78525076806545202</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="6">
+      <c r="M5" s="43"/>
+      <c r="N5" s="44">
         <f t="shared" si="1"/>
         <v>0.77155530080199208</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="51">
+        <v>0.76618267595767897</v>
+      </c>
+      <c r="P5" s="51">
+        <v>0.78478713333606698</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>0.76940141618251801</v>
+      </c>
+      <c r="R5" s="51">
+        <v>0.79284618794918005</v>
+      </c>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51">
+        <f t="shared" ref="T3:T14" si="3">AVERAGE(O5:S5)</f>
+        <v>0.77830435335636106</v>
+      </c>
+      <c r="U5" s="43">
         <v>0.79228344559669495</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="7">
+      <c r="V5" s="43">
+        <v>0.78656107187271096</v>
+      </c>
+      <c r="W5" s="43">
+        <v>0.82267659902572599</v>
+      </c>
+      <c r="Y5" s="43">
+        <v>0.79202443361282304</v>
+      </c>
+      <c r="Z5" s="54">
         <f t="shared" si="2"/>
-        <v>0.79228344559669495</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0.79228344559669495</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0.78656107187271096</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0.82267659902572599</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="7">
-        <f t="shared" si="3"/>
-        <v>0.8005070388317107</v>
+        <v>0.79838638752698876</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="38">
         <v>0.11992008388042381</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="9">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39">
         <f t="shared" si="0"/>
         <v>0.11992008388042381</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="45">
         <v>0.151442125439643</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="45">
         <v>0.11820410192012699</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="45">
         <v>0.123568385839462</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="45">
         <v>0.122050613164901</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="9">
+      <c r="M6" s="45"/>
+      <c r="N6" s="46">
         <f t="shared" si="1"/>
         <v>0.12881630659103324</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="52">
+        <v>0.13441099226474701</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0.122921638190746</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>0.127876281738281</v>
+      </c>
+      <c r="R6" s="52">
+        <v>0.11874101310968301</v>
+      </c>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52">
+        <f t="shared" si="3"/>
+        <v>0.12598748132586426</v>
+      </c>
+      <c r="U6" s="45">
         <v>0.117394886910915</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="8">
+      <c r="V6" s="45">
+        <v>0.12320835143327701</v>
+      </c>
+      <c r="W6" s="45">
+        <v>8.6495868861675207E-2</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>0.120385229587554</v>
+      </c>
+      <c r="Z6" s="55">
         <f t="shared" si="2"/>
-        <v>0.117394886910915</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0.117394886910915</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0.12320835143327701</v>
-      </c>
-      <c r="W6" s="5">
-        <v>8.6495868861675207E-2</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="8">
-        <f t="shared" si="3"/>
-        <v>0.10903303573528907</v>
+        <v>0.1118710841983553</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="36">
         <v>0.85562597960233622</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37">
         <f t="shared" si="0"/>
         <v>0.85562597960233622</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="43">
         <v>0.82830144464969602</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="43">
         <v>0.86781883239746005</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="43">
         <v>0.87996298819780305</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="43">
         <v>0.86820442974567402</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6">
+      <c r="M7" s="43"/>
+      <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.86107192374765829</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="51">
+        <v>0.83445119857787997</v>
+      </c>
+      <c r="P7" s="51">
+        <v>0.87526407837867704</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>0.86222971975803298</v>
+      </c>
+      <c r="R7" s="51">
+        <v>0.87793822586536396</v>
+      </c>
+      <c r="T7" s="51">
+        <f>AVERAGE(O7:S7)</f>
+        <v>0.86247080564498846</v>
+      </c>
+      <c r="U7" s="43">
         <v>0.884153433144092</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="7">
+      <c r="V7" s="43">
+        <v>0.87448276579380002</v>
+      </c>
+      <c r="W7" s="43">
+        <v>0.84933581948280301</v>
+      </c>
+      <c r="Y7" s="43">
+        <v>0.85991512238979295</v>
+      </c>
+      <c r="Z7" s="54">
         <f t="shared" si="2"/>
-        <v>0.884153433144092</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0.884153433144092</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0.87448276579380002</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0.84933581948280301</v>
-      </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="7">
-        <f t="shared" si="3"/>
-        <v>0.86932400614023164</v>
+        <v>0.86697178520262197</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="38">
         <v>0.1011327147483824</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="9">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>0.1011327147483824</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="45">
         <v>0.118060700595378</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="45">
         <v>9.6477814018726293E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="45">
         <v>8.9917473495006506E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="45">
         <v>9.7500488162040697E-2</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="9">
+      <c r="M8" s="45"/>
+      <c r="N8" s="46">
         <f t="shared" si="1"/>
         <v>0.10048911906778787</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="52">
+        <v>0.112971946597099</v>
+      </c>
+      <c r="P8" s="52">
+        <v>9.4868980348110199E-2</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>0.10110967606306</v>
+      </c>
+      <c r="R8" s="52">
+        <v>9.2467531561851501E-2</v>
+      </c>
+      <c r="T8" s="52">
+        <f>AVERAGE(O8:S8)</f>
+        <v>0.10035453364253018</v>
+      </c>
+      <c r="U8" s="45">
         <v>8.9287899434566498E-2</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="8">
+      <c r="V8" s="45">
+        <v>9.2565760016441304E-2</v>
+      </c>
+      <c r="W8" s="45">
+        <v>0.106815062463283</v>
+      </c>
+      <c r="Y8" s="45">
+        <v>0.10184667259454699</v>
+      </c>
+      <c r="Z8" s="55">
         <f t="shared" si="2"/>
-        <v>8.9287899434566498E-2</v>
-      </c>
-      <c r="U8" s="5">
-        <v>8.9287899434566498E-2</v>
-      </c>
-      <c r="V8" s="5">
-        <v>9.2565760016441304E-2</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0.106815062463283</v>
-      </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="8">
-        <f t="shared" si="3"/>
-        <v>9.6222907304763586E-2</v>
+        <v>9.7628848627209441E-2</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="36">
         <v>0.82269455790519663</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37">
         <f t="shared" si="0"/>
         <v>0.82269455790519663</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="43">
         <v>0.76638956367969502</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="43">
         <v>0.84839338064193703</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="43">
         <v>0.83068385720252902</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="43">
         <v>0.809156134724617</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6">
+      <c r="M9" s="43"/>
+      <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.81365573406219449</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="51">
+        <v>0.80939482152461995</v>
+      </c>
+      <c r="P9" s="51">
+        <v>0.81302452087402299</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>0.80450044572353296</v>
+      </c>
+      <c r="R9" s="51">
+        <v>0.84514316916465704</v>
+      </c>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51">
+        <f>AVERAGE(O9:S9)</f>
+        <v>0.81801573932170835</v>
+      </c>
+      <c r="U9" s="43">
         <v>0.83194474875926905</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="7">
+      <c r="V9" s="43">
+        <v>0.83173631131648995</v>
+      </c>
+      <c r="W9" s="43">
+        <v>0.83173631131648995</v>
+      </c>
+      <c r="Y9" s="43">
+        <v>0.81913134455680803</v>
+      </c>
+      <c r="Z9" s="54">
         <f t="shared" si="2"/>
-        <v>0.83194474875926905</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0.83194474875926905</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0.82540787756443001</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0.83173631131648995</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="7">
-        <f t="shared" si="3"/>
-        <v>0.82969631254672971</v>
+        <v>0.8286371789872643</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="38">
         <v>0.10219940394163123</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="9">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>0.10219940394163123</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="45">
         <v>0.13209502398967701</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="45">
         <v>9.3867197632789598E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="45">
         <v>0.10090688616037299</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="45">
         <v>0.108506880700588</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="9">
+      <c r="M10" s="45"/>
+      <c r="N10" s="46">
         <f t="shared" si="1"/>
         <v>0.10884399712085691</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="52">
+        <v>0.10965263098478301</v>
+      </c>
+      <c r="P10" s="52">
+        <v>0.11045782268047299</v>
+      </c>
+      <c r="Q10" s="52">
+        <v>0.11448482424020701</v>
+      </c>
+      <c r="R10" s="52">
+        <v>9.4945736229419694E-2</v>
+      </c>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52">
+        <f>AVERAGE(O10:S10)</f>
+        <v>0.10738525353372068</v>
+      </c>
+      <c r="U10" s="45">
         <v>9.7452804446220398E-2</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="8">
+      <c r="V10" s="45">
+        <v>9.9530018866062095E-2</v>
+      </c>
+      <c r="W10" s="45">
+        <v>9.9530018866062095E-2</v>
+      </c>
+      <c r="Y10" s="45">
+        <v>0.10342943668365399</v>
+      </c>
+      <c r="Z10" s="55">
         <f t="shared" si="2"/>
-        <v>9.7452804446220398E-2</v>
-      </c>
-      <c r="U10" s="5">
-        <v>9.7452804446220398E-2</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0.10474764555692601</v>
-      </c>
-      <c r="W10" s="5">
-        <v>9.9530018866062095E-2</v>
-      </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="8">
-        <f t="shared" si="3"/>
-        <v>0.10057682295640284</v>
+        <v>9.9985569715499656E-2</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="36">
         <v>0.80234082937240581</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>0.80234082937240581</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="43">
         <v>0.72866430878639199</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="43">
         <v>0.82495115697383803</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="43">
         <v>0.80118586122989599</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="43">
         <v>0.81819874048232999</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="6">
+      <c r="M11" s="43"/>
+      <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.79325001686811403</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="51">
+        <v>0.79747794568538599</v>
+      </c>
+      <c r="P11" s="51">
+        <v>0.80304700136184604</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>0.80575123429298401</v>
+      </c>
+      <c r="R11" s="51">
+        <v>0.82979017496108998</v>
+      </c>
+      <c r="T11" s="51">
+        <f>AVERAGE(O11:S11)</f>
+        <v>0.80901658907532648</v>
+      </c>
+      <c r="U11" s="43">
         <v>0.82290534675121296</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="7">
+      <c r="V11" s="43">
+        <v>0.80907231569290095</v>
+      </c>
+      <c r="W11" s="43">
+        <v>0.80071045458316803</v>
+      </c>
+      <c r="Y11" s="43">
+        <v>0.82083575427532196</v>
+      </c>
+      <c r="Z11" s="54">
         <f t="shared" si="2"/>
-        <v>0.82290534675121296</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0.82290534675121296</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0.80907231569290095</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0.79710821807384402</v>
-      </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="7">
-        <f t="shared" si="3"/>
-        <v>0.8096952935059859</v>
+        <v>0.81338096782565095</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="38">
         <v>0.10335587263107264</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
         <v>0.10335587263107264</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="45">
         <v>0.136337339878082</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="45">
         <v>8.8090837001800495E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="45">
         <v>9.7107909619808197E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="45">
         <v>9.2791803181171403E-2</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="9">
+      <c r="M12" s="45"/>
+      <c r="N12" s="46">
         <f t="shared" si="1"/>
         <v>0.10358197242021552</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="52">
+        <v>0.10813267529010701</v>
+      </c>
+      <c r="P12" s="52">
+        <v>9.9893219769000993E-2</v>
+      </c>
+      <c r="Q12" s="52">
+        <v>0.101568683981895</v>
+      </c>
+      <c r="R12" s="52">
+        <v>8.5551813244819599E-2</v>
+      </c>
+      <c r="T12" s="52">
+        <f t="shared" si="3"/>
+        <v>9.878659807145565E-2</v>
+      </c>
+      <c r="U12" s="45">
         <v>8.8504336774349199E-2</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="8">
+      <c r="V12" s="45">
+        <v>0.100506424903869</v>
+      </c>
+      <c r="W12" s="45">
+        <v>0.10070235282182601</v>
+      </c>
+      <c r="Y12" s="45">
+        <v>9.3370720744132996E-2</v>
+      </c>
+      <c r="Z12" s="55">
         <f t="shared" si="2"/>
-        <v>8.8504336774349199E-2</v>
-      </c>
-      <c r="U12" s="5">
-        <v>8.8504336774349199E-2</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0.100506424903869</v>
-      </c>
-      <c r="W12" s="5">
-        <v>0.12022029608488</v>
-      </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="8">
-        <f t="shared" si="3"/>
-        <v>0.10307701925436608</v>
+        <v>9.5770958811044304E-2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37">
         <f>AVERAGE(H3,H5,H7,H9,H11)</f>
         <v>0.81744947701692516</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43">
         <f>AVERAGE(N3,N5,N7,N9,N11)</f>
         <v>0.80791260562837086</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4">
-        <f>AVERAGE(T3,T5,T7,T9,T11)</f>
-        <v>0.82990049570798841</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4">
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51">
+        <f t="shared" ref="O13:T13" si="4">AVERAGE(T3,T5,T7,T9,T11)</f>
+        <v>0.81610571667551957</v>
+      </c>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43">
         <f>AVERAGE(Z3,Z5,Z7,Z9,Z11)</f>
-        <v>0.82555145273605945</v>
+        <v>0.82486756987869703</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39">
         <f>AVERAGE(H4,H6,H8,H10,H12)</f>
         <v>0.10772389173507657</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45">
         <f>AVERAGE(N4,N6,N8,N10,N12)</f>
         <v>0.11111515983939131</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5">
-        <f>AVERAGE(T4,T6,T8,T10,T12)</f>
-        <v>9.9045450985431424E-2</v>
-      </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5">
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52">
+        <f t="shared" ref="O14:T14" si="5">AVERAGE(T4,T6,T8,T10,T12)</f>
+        <v>0.10848100781440703</v>
+      </c>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45">
         <f>AVERAGE(Z4,Z6,Z8,Z10,Z12)</f>
-        <v>0.10278989374637573</v>
+        <v>0.10212784454226458</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="I15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="U15" s="4">
-        <v>0.82251240313053098</v>
-      </c>
+      <c r="I15" s="43"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="I16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="U16" s="5">
-        <v>0.10481353849172501</v>
-      </c>
+      <c r="I16" s="45"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="U17" s="4">
-        <v>0.76653526723384802</v>
-      </c>
+      <c r="I17" s="43"/>
+      <c r="O17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="U17" s="43"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="U18" s="5">
-        <v>0.12741479277610701</v>
-      </c>
+      <c r="I18" s="45"/>
+      <c r="O18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="U19" s="4">
-        <v>0.84572340548038405</v>
-      </c>
+      <c r="I19" s="43"/>
+      <c r="O19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="U19" s="43"/>
     </row>
     <row r="20" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="U20" s="5">
-        <v>0.10877938568591999</v>
-      </c>
+      <c r="I20" s="45"/>
+      <c r="O20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="U20" s="45"/>
     </row>
     <row r="21" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="U21" s="4">
-        <v>0.83173631131648995</v>
-      </c>
+      <c r="I21" s="43"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="U22" s="5">
-        <v>9.9530018866062095E-2</v>
-      </c>
+      <c r="I22" s="45"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="U23" s="4">
-        <v>0.80071045458316803</v>
-      </c>
+      <c r="I23" s="43"/>
+      <c r="O23" s="51"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="U24" s="5">
-        <v>0.10070235282182601</v>
-      </c>
+      <c r="I24" s="45"/>
+      <c r="O24" s="52"/>
+      <c r="Q24" s="52"/>
+    </row>
+    <row r="25" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="Q25" s="51"/>
+    </row>
+    <row r="26" spans="9:21" x14ac:dyDescent="0.4">
+      <c r="Q26" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2823,124 +2988,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>0.82120000000000004</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>1.5129999999999999</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>0.04</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>0.92849999999999999</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>2.637</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>0.06</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>0.90139999999999998</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>0.88939999999999997</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>0.68600000000000005</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.373</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>0.1363</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E24" s="24"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="5:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E25" s="25"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="5:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -2996,7 +3161,7 @@
       <c r="B3">
         <v>5.4177246056497097E-3</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>2.13819716009311E-4</v>
       </c>
       <c r="D3">

--- a/result/多源域迁移算法对比.xlsx
+++ b/result/多源域迁移算法对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA072E-5CE6-4A27-B78F-43770C94F4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBF537-094A-4031-A0EB-2DD3CB63BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,37 +422,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,9 +440,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,9 +464,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,6 +477,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,42 +822,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
+      <c r="A2" s="47"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -893,7 +896,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -961,7 +964,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -997,7 +1000,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1033,7 +1036,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1099,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1135,7 +1138,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1195,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1236,7 +1239,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1278,7 +1281,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1317,7 +1320,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="25"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1386,7 +1389,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1425,7 +1428,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1482,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1520,7 +1523,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="25"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1559,7 +1562,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1598,7 +1601,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1637,7 +1640,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1676,7 +1679,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1733,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1771,7 +1774,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1810,7 +1813,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1846,7 +1849,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1882,7 +1885,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1918,7 +1921,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="25"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1993,980 +1996,992 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.06640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14.06640625" style="33" customWidth="1"/>
-    <col min="3" max="7" width="9.06640625" style="33" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" style="33" customWidth="1"/>
-    <col min="9" max="12" width="9.06640625" style="47" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" style="47" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" style="47" customWidth="1"/>
-    <col min="15" max="18" width="9.06640625" style="53" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.46484375" style="53" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.73046875" style="53" customWidth="1"/>
-    <col min="21" max="24" width="9.06640625" style="47" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.46484375" style="47" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.9296875" style="47" customWidth="1"/>
-    <col min="27" max="16384" width="9.06640625" style="33"/>
+    <col min="1" max="1" width="17.06640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.06640625" style="25" customWidth="1"/>
+    <col min="3" max="7" width="9.06640625" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" style="25" customWidth="1"/>
+    <col min="9" max="12" width="9.06640625" style="38" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.46484375" style="38" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.73046875" style="38" customWidth="1"/>
+    <col min="15" max="18" width="9.06640625" style="43" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.46484375" style="43" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.73046875" style="43" customWidth="1"/>
+    <col min="21" max="24" width="9.06640625" style="38" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.46484375" style="38" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.9296875" style="38" customWidth="1"/>
+    <col min="27" max="16384" width="9.06640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="40" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="48" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="40" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-    </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+    </row>
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27">
         <v>1</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="27">
         <v>2</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="27">
         <v>3</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="27">
         <v>4</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="26">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="32">
         <v>1</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32">
         <v>3</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="32">
         <v>4</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="33">
         <v>5</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="39">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39">
         <v>3</v>
       </c>
-      <c r="R2" s="49">
+      <c r="R2" s="39">
         <v>4</v>
       </c>
-      <c r="S2" s="50">
+      <c r="S2" s="40">
         <v>5</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="41">
+      <c r="U2" s="32">
         <v>1</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41">
+      <c r="V2" s="32"/>
+      <c r="W2" s="32">
         <v>3</v>
       </c>
-      <c r="X2" s="41">
+      <c r="X2" s="32">
         <v>4</v>
       </c>
-      <c r="Y2" s="42">
+      <c r="Y2" s="33">
         <v>5</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="28">
         <v>0.8081852644681925</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37">
-        <f t="shared" ref="H3:H12" si="0">AVERAGE(C3:G3)</f>
-        <v>0.8081852644681925</v>
-      </c>
-      <c r="I3" s="43">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="17">
+        <v>0.86463844776153498</v>
+      </c>
+      <c r="I3" s="34">
         <v>0.73473906517028797</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="34">
         <v>0.82946909964084603</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="34">
         <v>0.83141124248504605</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="34">
         <v>0.80450080335140195</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44">
-        <f t="shared" ref="N3:N12" si="1">AVERAGE(I3:M3)</f>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35">
+        <f t="shared" ref="N3:N12" si="0">AVERAGE(I3:M3)</f>
         <v>0.80003005266189542</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="41">
         <v>0.81128679215907995</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="41">
         <v>0.81846974790096205</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="41">
         <v>0.78825367987155903</v>
       </c>
-      <c r="R3" s="51">
+      <c r="R3" s="41">
         <v>0.83287416398525205</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41">
         <f>AVERAGE(O3:S3)</f>
         <v>0.81272109597921327</v>
       </c>
-      <c r="U3" s="43">
+      <c r="U3" s="34">
         <v>0.81821550428867296</v>
       </c>
-      <c r="V3" s="43">
+      <c r="V3" s="34">
         <v>0.81057986617088296</v>
       </c>
-      <c r="W3" s="43">
+      <c r="W3" s="34">
         <v>0.82680846750736203</v>
       </c>
-      <c r="X3" s="43">
+      <c r="X3" s="34">
         <v>0.82251240313053098</v>
       </c>
-      <c r="Y3" s="43">
+      <c r="Y3" s="34">
         <v>0.80669140815734797</v>
       </c>
-      <c r="Z3" s="54">
-        <f t="shared" ref="Z3:Z12" si="2">AVERAGE(U3:Y3)</f>
-        <v>0.81696152985095938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="38" t="s">
+      <c r="Z3" s="44">
+        <v>0.86985698759555796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="48"/>
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="30">
         <v>0.11201138347387281</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="56">
+        <v>8.2795858383178697E-2</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0.14244391024112699</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0.100569583475589</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0.103497587144374</v>
+      </c>
+      <c r="L4" s="36">
+        <v>0.108866535127162</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37">
         <f t="shared" si="0"/>
-        <v>0.11201138347387281</v>
-      </c>
-      <c r="I4" s="45">
-        <v>0.14244391024112699</v>
-      </c>
-      <c r="J4" s="45">
-        <v>0.100569583475589</v>
-      </c>
-      <c r="K4" s="45">
-        <v>0.103497587144374</v>
-      </c>
-      <c r="L4" s="45">
-        <v>0.108866535127162</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46">
-        <f t="shared" si="1"/>
         <v>0.113844403997063</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="42">
         <v>0.110524982213974</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="42">
         <v>0.113219298422336</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="42">
         <v>0.117301158607006</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="42">
         <v>9.8519250750541604E-2</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52">
+      <c r="S4" s="42"/>
+      <c r="T4" s="42">
         <f>AVERAGE(O4:S4)</f>
         <v>0.10989117249846439</v>
       </c>
-      <c r="U4" s="45">
+      <c r="U4" s="36">
         <v>0.102587327361106</v>
       </c>
-      <c r="V4" s="45">
+      <c r="V4" s="36">
         <v>0.110930979251861</v>
       </c>
-      <c r="W4" s="45">
+      <c r="W4" s="36">
         <v>0.101600743830204</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="36">
         <v>0.10481353849172501</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="36">
         <v>0.106981217861175</v>
       </c>
-      <c r="Z4" s="55">
-        <f t="shared" si="2"/>
-        <v>0.10538276135921421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="Z4" s="45">
+        <v>8.2496338248252796E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="28">
         <v>0.79840075373649533</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="17">
+        <v>0.83924721181392603</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0.71656578779220503</v>
+      </c>
+      <c r="J5" s="34">
+        <v>0.797238528728485</v>
+      </c>
+      <c r="K5" s="34">
+        <v>0.78716611862182595</v>
+      </c>
+      <c r="L5" s="34">
+        <v>0.78525076806545202</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35">
         <f t="shared" si="0"/>
-        <v>0.79840075373649533</v>
-      </c>
-      <c r="I5" s="43">
-        <v>0.71656578779220503</v>
-      </c>
-      <c r="J5" s="43">
-        <v>0.797238528728485</v>
-      </c>
-      <c r="K5" s="43">
-        <v>0.78716611862182595</v>
-      </c>
-      <c r="L5" s="43">
-        <v>0.78525076806545202</v>
-      </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44">
+        <v>0.77155530080199208</v>
+      </c>
+      <c r="O5" s="41">
+        <v>0.76618267595767897</v>
+      </c>
+      <c r="P5" s="41">
+        <v>0.78478713333606698</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0.76940141618251801</v>
+      </c>
+      <c r="R5" s="41">
+        <v>0.79284618794918005</v>
+      </c>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41">
+        <f t="shared" ref="T5:T12" si="1">AVERAGE(O5:S5)</f>
+        <v>0.77830435335636106</v>
+      </c>
+      <c r="U5" s="34">
+        <v>0.79228344559669495</v>
+      </c>
+      <c r="V5" s="34">
+        <v>0.78656107187271096</v>
+      </c>
+      <c r="W5" s="34">
+        <v>0.82267659902572599</v>
+      </c>
+      <c r="Y5" s="34">
+        <v>0.79202443361282304</v>
+      </c>
+      <c r="Z5" s="44">
+        <v>0.84605459749698597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="48"/>
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.11992008388042381</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="56">
+        <v>9.5896124839782701E-2</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0.151442125439643</v>
+      </c>
+      <c r="J6" s="36">
+        <v>0.11820410192012699</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0.123568385839462</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0.122050613164901</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.12881630659103324</v>
+      </c>
+      <c r="O6" s="42">
+        <v>0.13441099226474701</v>
+      </c>
+      <c r="P6" s="42">
+        <v>0.122921638190746</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>0.127876281738281</v>
+      </c>
+      <c r="R6" s="42">
+        <v>0.11874101310968301</v>
+      </c>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42">
         <f t="shared" si="1"/>
-        <v>0.77155530080199208</v>
-      </c>
-      <c r="O5" s="51">
-        <v>0.76618267595767897</v>
-      </c>
-      <c r="P5" s="51">
-        <v>0.78478713333606698</v>
-      </c>
-      <c r="Q5" s="51">
-        <v>0.76940141618251801</v>
-      </c>
-      <c r="R5" s="51">
-        <v>0.79284618794918005</v>
-      </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51">
-        <f t="shared" ref="T3:T14" si="3">AVERAGE(O5:S5)</f>
-        <v>0.77830435335636106</v>
-      </c>
-      <c r="U5" s="43">
-        <v>0.79228344559669495</v>
-      </c>
-      <c r="V5" s="43">
-        <v>0.78656107187271096</v>
-      </c>
-      <c r="W5" s="43">
-        <v>0.82267659902572599</v>
-      </c>
-      <c r="Y5" s="43">
-        <v>0.79202443361282304</v>
-      </c>
-      <c r="Z5" s="54">
-        <f t="shared" si="2"/>
-        <v>0.79838638752698876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0.11992008388042381</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39">
+        <v>0.12598748132586426</v>
+      </c>
+      <c r="U6" s="36">
+        <v>0.117394886910915</v>
+      </c>
+      <c r="V6" s="36">
+        <v>0.12320835143327701</v>
+      </c>
+      <c r="W6" s="36">
+        <v>8.6495868861675207E-2</v>
+      </c>
+      <c r="Y6" s="36">
+        <v>0.120385229587554</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>9.5674376785755105E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.85562597960233622</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="17">
+        <v>0.95125894248485499</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.82830144464969602</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.86781883239746005</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.87996298819780305</v>
+      </c>
+      <c r="L7" s="34">
+        <v>0.86820442974567402</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35">
         <f t="shared" si="0"/>
-        <v>0.11992008388042381</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0.151442125439643</v>
-      </c>
-      <c r="J6" s="45">
-        <v>0.11820410192012699</v>
-      </c>
-      <c r="K6" s="45">
-        <v>0.123568385839462</v>
-      </c>
-      <c r="L6" s="45">
-        <v>0.122050613164901</v>
-      </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46">
-        <f t="shared" si="1"/>
-        <v>0.12881630659103324</v>
-      </c>
-      <c r="O6" s="52">
-        <v>0.13441099226474701</v>
-      </c>
-      <c r="P6" s="52">
-        <v>0.122921638190746</v>
-      </c>
-      <c r="Q6" s="52">
-        <v>0.127876281738281</v>
-      </c>
-      <c r="R6" s="52">
-        <v>0.11874101310968301</v>
-      </c>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52">
-        <f t="shared" si="3"/>
-        <v>0.12598748132586426</v>
-      </c>
-      <c r="U6" s="45">
-        <v>0.117394886910915</v>
-      </c>
-      <c r="V6" s="45">
-        <v>0.12320835143327701</v>
-      </c>
-      <c r="W6" s="45">
-        <v>8.6495868861675207E-2</v>
-      </c>
-      <c r="Y6" s="45">
-        <v>0.120385229587554</v>
-      </c>
-      <c r="Z6" s="55">
-        <f t="shared" si="2"/>
-        <v>0.1118710841983553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.85562597960233622</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37">
-        <f t="shared" si="0"/>
-        <v>0.85562597960233622</v>
-      </c>
-      <c r="I7" s="43">
-        <v>0.82830144464969602</v>
-      </c>
-      <c r="J7" s="43">
-        <v>0.86781883239746005</v>
-      </c>
-      <c r="K7" s="43">
-        <v>0.87996298819780305</v>
-      </c>
-      <c r="L7" s="43">
-        <v>0.86820442974567402</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44">
-        <f t="shared" si="1"/>
         <v>0.86107192374765829</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="41">
         <v>0.83445119857787997</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="41">
         <v>0.87526407837867704</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="41">
         <v>0.86222971975803298</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="41">
         <v>0.87793822586536396</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="41">
         <f>AVERAGE(O7:S7)</f>
         <v>0.86247080564498846</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="34">
         <v>0.884153433144092</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="34">
         <v>0.87448276579380002</v>
       </c>
-      <c r="W7" s="43">
+      <c r="W7" s="34">
         <v>0.84933581948280301</v>
       </c>
-      <c r="Y7" s="43">
+      <c r="Y7" s="34">
         <v>0.85991512238979295</v>
       </c>
-      <c r="Z7" s="54">
-        <f t="shared" si="2"/>
-        <v>0.86697178520262197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="38" t="s">
+      <c r="Z7" s="44">
+        <v>0.96325241029262498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="48"/>
+      <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="30">
         <v>0.1011327147483824</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="56">
+        <v>3.4540437161922399E-2</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0.118060700595378</v>
+      </c>
+      <c r="J8" s="36">
+        <v>9.6477814018726293E-2</v>
+      </c>
+      <c r="K8" s="36">
+        <v>8.9917473495006506E-2</v>
+      </c>
+      <c r="L8" s="36">
+        <v>9.7500488162040697E-2</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37">
         <f t="shared" si="0"/>
-        <v>0.1011327147483824</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0.118060700595378</v>
-      </c>
-      <c r="J8" s="45">
-        <v>9.6477814018726293E-2</v>
-      </c>
-      <c r="K8" s="45">
-        <v>8.9917473495006506E-2</v>
-      </c>
-      <c r="L8" s="45">
-        <v>9.7500488162040697E-2</v>
-      </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46">
-        <f t="shared" si="1"/>
         <v>0.10048911906778787</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="42">
         <v>0.112971946597099</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="42">
         <v>9.4868980348110199E-2</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="42">
         <v>0.10110967606306</v>
       </c>
-      <c r="R8" s="52">
+      <c r="R8" s="42">
         <v>9.2467531561851501E-2</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="42">
         <f>AVERAGE(O8:S8)</f>
         <v>0.10035453364253018</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="36">
         <v>8.9287899434566498E-2</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="36">
         <v>9.2565760016441304E-2</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="36">
         <v>0.106815062463283</v>
       </c>
-      <c r="Y8" s="45">
+      <c r="Y8" s="36">
         <v>0.10184667259454699</v>
       </c>
-      <c r="Z8" s="55">
-        <f t="shared" si="2"/>
-        <v>9.7628848627209441E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="Z8" s="45">
+        <v>2.33932510018348E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="28">
         <v>0.82269455790519663</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="17">
+        <v>0.88121253997087401</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.76638956367969502</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0.84839338064193703</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0.83068385720252902</v>
+      </c>
+      <c r="L9" s="34">
+        <v>0.809156134724617</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35">
         <f t="shared" si="0"/>
-        <v>0.82269455790519663</v>
-      </c>
-      <c r="I9" s="43">
-        <v>0.76638956367969502</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0.84839338064193703</v>
-      </c>
-      <c r="K9" s="43">
-        <v>0.83068385720252902</v>
-      </c>
-      <c r="L9" s="43">
-        <v>0.809156134724617</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44">
-        <f t="shared" si="1"/>
         <v>0.81365573406219449</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="41">
         <v>0.80939482152461995</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="41">
         <v>0.81302452087402299</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="41">
         <v>0.80450044572353296</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="41">
         <v>0.84514316916465704</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51">
+      <c r="S9" s="41"/>
+      <c r="T9" s="41">
         <f>AVERAGE(O9:S9)</f>
         <v>0.81801573932170835</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="34">
         <v>0.83194474875926905</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="34">
         <v>0.83173631131648995</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="34">
         <v>0.83173631131648995</v>
       </c>
-      <c r="Y9" s="43">
+      <c r="Y9" s="34">
         <v>0.81913134455680803</v>
       </c>
-      <c r="Z9" s="54">
-        <f t="shared" si="2"/>
-        <v>0.8286371789872643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="38" t="s">
+      <c r="Z9" s="44">
+        <v>0.88947024285793297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="30">
         <v>0.10219940394163123</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="56">
+        <v>7.4802897870540605E-2</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.13209502398967701</v>
+      </c>
+      <c r="J10" s="36">
+        <v>9.3867197632789598E-2</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0.10090688616037299</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0.108506880700588</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37">
         <f t="shared" si="0"/>
-        <v>0.10219940394163123</v>
-      </c>
-      <c r="I10" s="45">
-        <v>0.13209502398967701</v>
-      </c>
-      <c r="J10" s="45">
-        <v>9.3867197632789598E-2</v>
-      </c>
-      <c r="K10" s="45">
-        <v>0.10090688616037299</v>
-      </c>
-      <c r="L10" s="45">
-        <v>0.108506880700588</v>
-      </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46">
-        <f t="shared" si="1"/>
         <v>0.10884399712085691</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="42">
         <v>0.10965263098478301</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="42">
         <v>0.11045782268047299</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="42">
         <v>0.11448482424020701</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="42">
         <v>9.4945736229419694E-2</v>
       </c>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52">
+      <c r="S10" s="42"/>
+      <c r="T10" s="42">
         <f>AVERAGE(O10:S10)</f>
         <v>0.10738525353372068</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="36">
         <v>9.7452804446220398E-2</v>
       </c>
-      <c r="V10" s="45">
+      <c r="V10" s="36">
         <v>9.9530018866062095E-2</v>
       </c>
-      <c r="W10" s="45">
+      <c r="W10" s="36">
         <v>9.9530018866062095E-2</v>
       </c>
-      <c r="Y10" s="45">
+      <c r="Y10" s="36">
         <v>0.10342943668365399</v>
       </c>
-      <c r="Z10" s="55">
-        <f t="shared" si="2"/>
-        <v>9.9985569715499656E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
+      <c r="Z10" s="45">
+        <v>7.6436897516250601E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="28">
         <v>0.80234082937240581</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="17">
+        <v>0.89041186124086302</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0.72866430878639199</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.82495115697383803</v>
+      </c>
+      <c r="K11" s="34">
+        <v>0.80118586122989599</v>
+      </c>
+      <c r="L11" s="34">
+        <v>0.81819874048232999</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35">
         <f t="shared" si="0"/>
-        <v>0.80234082937240581</v>
-      </c>
-      <c r="I11" s="43">
-        <v>0.72866430878639199</v>
-      </c>
-      <c r="J11" s="43">
-        <v>0.82495115697383803</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0.80118586122989599</v>
-      </c>
-      <c r="L11" s="43">
-        <v>0.81819874048232999</v>
-      </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44">
-        <f t="shared" si="1"/>
         <v>0.79325001686811403</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="41">
         <v>0.79747794568538599</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="41">
         <v>0.80304700136184604</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="41">
         <v>0.80575123429298401</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="41">
         <v>0.82979017496108998</v>
       </c>
-      <c r="T11" s="51">
+      <c r="T11" s="41">
         <f>AVERAGE(O11:S11)</f>
         <v>0.80901658907532648</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="34">
         <v>0.82290534675121296</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="34">
         <v>0.80907231569290095</v>
       </c>
-      <c r="W11" s="43">
+      <c r="W11" s="34">
         <v>0.80071045458316803</v>
       </c>
-      <c r="Y11" s="43">
+      <c r="Y11" s="34">
         <v>0.82083575427532196</v>
       </c>
-      <c r="Z11" s="54">
-        <f t="shared" si="2"/>
-        <v>0.81338096782565095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="38" t="s">
+      <c r="Z11" s="44">
+        <v>0.89576138973235997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="48"/>
+      <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="30">
         <v>0.10335587263107264</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="56">
+        <v>5.9486769139766603E-2</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0.136337339878082</v>
+      </c>
+      <c r="J12" s="36">
+        <v>8.8090837001800495E-2</v>
+      </c>
+      <c r="K12" s="36">
+        <v>9.7107909619808197E-2</v>
+      </c>
+      <c r="L12" s="36">
+        <v>9.2791803181171403E-2</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37">
         <f t="shared" si="0"/>
-        <v>0.10335587263107264</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0.136337339878082</v>
-      </c>
-      <c r="J12" s="45">
-        <v>8.8090837001800495E-2</v>
-      </c>
-      <c r="K12" s="45">
-        <v>9.7107909619808197E-2</v>
-      </c>
-      <c r="L12" s="45">
-        <v>9.2791803181171403E-2</v>
-      </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46">
+        <v>0.10358197242021552</v>
+      </c>
+      <c r="O12" s="42">
+        <v>0.10813267529010701</v>
+      </c>
+      <c r="P12" s="42">
+        <v>9.9893219769000993E-2</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>0.101568683981895</v>
+      </c>
+      <c r="R12" s="42">
+        <v>8.5551813244819599E-2</v>
+      </c>
+      <c r="T12" s="42">
         <f t="shared" si="1"/>
-        <v>0.10358197242021552</v>
-      </c>
-      <c r="O12" s="52">
-        <v>0.10813267529010701</v>
-      </c>
-      <c r="P12" s="52">
-        <v>9.9893219769000993E-2</v>
-      </c>
-      <c r="Q12" s="52">
-        <v>0.101568683981895</v>
-      </c>
-      <c r="R12" s="52">
-        <v>8.5551813244819599E-2</v>
-      </c>
-      <c r="T12" s="52">
-        <f t="shared" si="3"/>
         <v>9.878659807145565E-2</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="36">
         <v>8.8504336774349199E-2</v>
       </c>
-      <c r="V12" s="45">
+      <c r="V12" s="36">
         <v>0.100506424903869</v>
       </c>
-      <c r="W12" s="45">
+      <c r="W12" s="36">
         <v>0.10070235282182601</v>
       </c>
-      <c r="Y12" s="45">
+      <c r="Y12" s="36">
         <v>9.3370720744132996E-2</v>
       </c>
-      <c r="Z12" s="55">
-        <f t="shared" si="2"/>
-        <v>9.5770958811044304E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="Z12" s="45">
+        <v>5.6048525273799901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29">
         <f>AVERAGE(H3,H5,H7,H9,H11)</f>
-        <v>0.81744947701692516</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43">
+        <v>0.88535380065441061</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34">
         <f>AVERAGE(N3,N5,N7,N9,N11)</f>
         <v>0.80791260562837086</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51">
-        <f t="shared" ref="O13:T13" si="4">AVERAGE(T3,T5,T7,T9,T11)</f>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41">
+        <f t="shared" ref="T13:Z13" si="2">AVERAGE(T3,T5,T7,T9,T11)</f>
         <v>0.81610571667551957</v>
       </c>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43">
-        <f>AVERAGE(Z3,Z5,Z7,Z9,Z11)</f>
-        <v>0.82486756987869703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="38" t="s">
+      <c r="U13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.82990049570798841</v>
+      </c>
+      <c r="V13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.82248646616935694</v>
+      </c>
+      <c r="W13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.82625353038310989</v>
+      </c>
+      <c r="X13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.82251240313053098</v>
+      </c>
+      <c r="Y13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.81971961259841886</v>
+      </c>
+      <c r="Z13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.8928791255950923</v>
+      </c>
+      <c r="AA13" s="44"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="48"/>
+      <c r="B14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31">
         <f>AVERAGE(H4,H6,H8,H10,H12)</f>
-        <v>0.10772389173507657</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45">
+        <v>6.9504417479038197E-2</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36">
         <f>AVERAGE(N4,N6,N8,N10,N12)</f>
         <v>0.11111515983939131</v>
       </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52">
-        <f t="shared" ref="O14:T14" si="5">AVERAGE(T4,T6,T8,T10,T12)</f>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42">
+        <f t="shared" ref="T14:Z14" si="3">AVERAGE(T4,T6,T8,T10,T12)</f>
         <v>0.10848100781440703</v>
       </c>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45">
-        <f>AVERAGE(Z4,Z6,Z8,Z10,Z12)</f>
-        <v>0.10212784454226458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="I15" s="43"/>
-      <c r="O15" s="51"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="I16" s="45"/>
-      <c r="O16" s="52"/>
+      <c r="U14" s="42">
+        <f t="shared" si="3"/>
+        <v>9.9045450985431424E-2</v>
+      </c>
+      <c r="V14" s="42">
+        <f t="shared" si="3"/>
+        <v>0.10534830689430208</v>
+      </c>
+      <c r="W14" s="42">
+        <f t="shared" si="3"/>
+        <v>9.9028809368610055E-2</v>
+      </c>
+      <c r="X14" s="42">
+        <f t="shared" si="3"/>
+        <v>0.10481353849172501</v>
+      </c>
+      <c r="Y14" s="42">
+        <f t="shared" si="3"/>
+        <v>0.10520265549421259</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" si="3"/>
+        <v>6.6809877765178632E-2</v>
+      </c>
+      <c r="AA14" s="37"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I15" s="34"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I16" s="36"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I17" s="43"/>
-      <c r="O17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="U17" s="43"/>
+      <c r="I17" s="34"/>
+      <c r="O17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="U17" s="34"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I18" s="45"/>
-      <c r="O18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="U18" s="45"/>
+      <c r="I18" s="36"/>
+      <c r="O18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="U18" s="36"/>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I19" s="43"/>
-      <c r="O19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="U19" s="43"/>
+      <c r="I19" s="34"/>
+      <c r="O19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="U19" s="34"/>
     </row>
     <row r="20" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I20" s="45"/>
-      <c r="O20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="U20" s="45"/>
+      <c r="I20" s="36"/>
+      <c r="O20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="U20" s="36"/>
     </row>
     <row r="21" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I21" s="43"/>
-      <c r="O21" s="51"/>
+      <c r="I21" s="34"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I22" s="45"/>
-      <c r="O22" s="52"/>
+      <c r="I22" s="36"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I23" s="43"/>
-      <c r="O23" s="51"/>
-      <c r="Q23" s="51"/>
+      <c r="I23" s="34"/>
+      <c r="O23" s="41"/>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I24" s="45"/>
-      <c r="O24" s="52"/>
-      <c r="Q24" s="52"/>
+      <c r="I24" s="36"/>
+      <c r="O24" s="42"/>
+      <c r="Q24" s="42"/>
     </row>
     <row r="25" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="Q25" s="51"/>
+      <c r="Q25" s="41"/>
     </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="Q26" s="52"/>
+      <c r="Q26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2988,20 +3003,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="28"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="13" t="s">
         <v>23</v>
       </c>

--- a/result/多源域迁移算法对比.xlsx
+++ b/result/多源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBF537-094A-4031-A0EB-2DD3CB63BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EAC65C-78AF-432D-92F4-E0CC6C97AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>方法\指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,15 +188,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实验二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FDW-DANN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验三</t>
+  </si>
+  <si>
+    <t>实验四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -346,11 +349,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,42 +456,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,12 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -509,8 +507,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,42 +820,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="47"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="A2" s="43"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -896,7 +894,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -964,7 +962,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1000,7 +998,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1036,7 +1034,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="47"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1102,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1138,7 +1136,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1193,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1239,7 +1237,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1281,7 +1279,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1320,7 +1318,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1389,7 +1387,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1428,7 +1426,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1482,7 +1480,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1523,7 +1521,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1562,7 +1560,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1601,7 +1599,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1640,7 +1638,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1679,7 +1677,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1731,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1774,7 +1772,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1813,7 +1811,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1849,7 +1847,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1885,7 +1883,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1921,7 +1919,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1996,13 +1994,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2011,57 +2009,38 @@
     <col min="2" max="2" width="14.06640625" style="25" customWidth="1"/>
     <col min="3" max="7" width="9.06640625" style="25" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.53125" style="25" customWidth="1"/>
-    <col min="9" max="12" width="9.06640625" style="38" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" style="38" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" style="38" customWidth="1"/>
-    <col min="15" max="18" width="9.06640625" style="43" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.46484375" style="43" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.73046875" style="43" customWidth="1"/>
-    <col min="21" max="24" width="9.06640625" style="38" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.46484375" style="38" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.9296875" style="38" customWidth="1"/>
-    <col min="27" max="16384" width="9.06640625" style="25"/>
+    <col min="9" max="11" width="9.46484375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.9296875" style="34" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13" ht="13.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51" t="s">
+      <c r="K1" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-    </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
@@ -2084,57 +2063,15 @@
       <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32">
-        <v>1</v>
-      </c>
+      <c r="I2" s="32"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="32">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32">
-        <v>4</v>
-      </c>
-      <c r="M2" s="33">
-        <v>5</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="39">
-        <v>1</v>
-      </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39">
-        <v>3</v>
-      </c>
-      <c r="R2" s="39">
-        <v>4</v>
-      </c>
-      <c r="S2" s="40">
-        <v>5</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="32">
-        <v>1</v>
-      </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32">
-        <v>3</v>
-      </c>
-      <c r="X2" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="33">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -2150,61 +2087,24 @@
       <c r="H3" s="17">
         <v>0.86463844776153498</v>
       </c>
-      <c r="I3" s="34">
-        <v>0.73473906517028797</v>
-      </c>
-      <c r="J3" s="34">
-        <v>0.82946909964084603</v>
-      </c>
-      <c r="K3" s="34">
-        <v>0.83141124248504605</v>
-      </c>
-      <c r="L3" s="34">
-        <v>0.80450080335140195</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35">
-        <f t="shared" ref="N3:N12" si="0">AVERAGE(I3:M3)</f>
-        <v>0.80003005266189542</v>
-      </c>
-      <c r="O3" s="41">
-        <v>0.81128679215907995</v>
-      </c>
-      <c r="P3" s="41">
-        <v>0.81846974790096205</v>
-      </c>
-      <c r="Q3" s="41">
-        <v>0.78825367987155903</v>
-      </c>
-      <c r="R3" s="41">
-        <v>0.83287416398525205</v>
-      </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41">
-        <f>AVERAGE(O3:S3)</f>
-        <v>0.81272109597921327</v>
-      </c>
-      <c r="U3" s="34">
-        <v>0.81821550428867296</v>
-      </c>
-      <c r="V3" s="34">
-        <v>0.81057986617088296</v>
-      </c>
-      <c r="W3" s="34">
-        <v>0.82680846750736203</v>
-      </c>
-      <c r="X3" s="34">
-        <v>0.82251240313053098</v>
-      </c>
-      <c r="Y3" s="34">
-        <v>0.80669140815734797</v>
-      </c>
-      <c r="Z3" s="44">
-        <v>0.86985698759555796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
+      <c r="I3" s="17">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.8488</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0.87985698759555797</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0.85444588959217005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="44"/>
       <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
@@ -2215,64 +2115,27 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="56">
+      <c r="H4" s="39">
         <v>8.2795858383178697E-2</v>
       </c>
-      <c r="I4" s="36">
-        <v>0.14244391024112699</v>
-      </c>
-      <c r="J4" s="36">
-        <v>0.100569583475589</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0.103497587144374</v>
-      </c>
-      <c r="L4" s="36">
-        <v>0.108866535127162</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37">
-        <f t="shared" si="0"/>
-        <v>0.113844403997063</v>
-      </c>
-      <c r="O4" s="42">
-        <v>0.110524982213974</v>
-      </c>
-      <c r="P4" s="42">
-        <v>0.113219298422336</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>0.117301158607006</v>
-      </c>
-      <c r="R4" s="42">
-        <v>9.8519250750541604E-2</v>
-      </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42">
-        <f>AVERAGE(O4:S4)</f>
-        <v>0.10989117249846439</v>
-      </c>
-      <c r="U4" s="36">
-        <v>0.102587327361106</v>
-      </c>
-      <c r="V4" s="36">
-        <v>0.110930979251861</v>
-      </c>
-      <c r="W4" s="36">
-        <v>0.101600743830204</v>
-      </c>
-      <c r="X4" s="36">
-        <v>0.10481353849172501</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>0.106981217861175</v>
-      </c>
-      <c r="Z4" s="45">
-        <v>8.2496338248252796E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="48" t="s">
+      <c r="I4" s="39">
+        <v>8.4795858383178699E-2</v>
+      </c>
+      <c r="J4" s="39">
+        <v>8.4795858383178699E-2</v>
+      </c>
+      <c r="K4" s="39">
+        <v>8.1795858383178696E-2</v>
+      </c>
+      <c r="L4" s="38">
+        <v>7.8496338248252806E-2</v>
+      </c>
+      <c r="M4" s="25">
+        <v>8.3928331732749897E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -2288,58 +2151,24 @@
       <c r="H5" s="17">
         <v>0.83924721181392603</v>
       </c>
-      <c r="I5" s="34">
-        <v>0.71656578779220503</v>
-      </c>
-      <c r="J5" s="34">
-        <v>0.797238528728485</v>
-      </c>
-      <c r="K5" s="34">
-        <v>0.78716611862182595</v>
-      </c>
-      <c r="L5" s="34">
-        <v>0.78525076806545202</v>
-      </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35">
-        <f t="shared" si="0"/>
-        <v>0.77155530080199208</v>
-      </c>
-      <c r="O5" s="41">
-        <v>0.76618267595767897</v>
-      </c>
-      <c r="P5" s="41">
-        <v>0.78478713333606698</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>0.76940141618251801</v>
-      </c>
-      <c r="R5" s="41">
-        <v>0.79284618794918005</v>
-      </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41">
-        <f t="shared" ref="T5:T12" si="1">AVERAGE(O5:S5)</f>
-        <v>0.77830435335636106</v>
-      </c>
-      <c r="U5" s="34">
-        <v>0.79228344559669495</v>
-      </c>
-      <c r="V5" s="34">
-        <v>0.78656107187271096</v>
-      </c>
-      <c r="W5" s="34">
-        <v>0.82267659902572599</v>
-      </c>
-      <c r="Y5" s="34">
-        <v>0.79202443361282304</v>
-      </c>
-      <c r="Z5" s="44">
-        <v>0.84605459749698597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
+      <c r="I5" s="17">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.85605459749698598</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0.82277874648571003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="44"/>
       <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
@@ -2350,61 +2179,27 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="56">
+      <c r="H6" s="39">
         <v>9.5896124839782701E-2</v>
       </c>
-      <c r="I6" s="36">
-        <v>0.151442125439643</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0.11820410192012699</v>
-      </c>
-      <c r="K6" s="36">
-        <v>0.123568385839462</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0.122050613164901</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37">
-        <f t="shared" si="0"/>
-        <v>0.12881630659103324</v>
-      </c>
-      <c r="O6" s="42">
-        <v>0.13441099226474701</v>
-      </c>
-      <c r="P6" s="42">
-        <v>0.122921638190746</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>0.127876281738281</v>
-      </c>
-      <c r="R6" s="42">
-        <v>0.11874101310968301</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42">
-        <f t="shared" si="1"/>
-        <v>0.12598748132586426</v>
-      </c>
-      <c r="U6" s="36">
-        <v>0.117394886910915</v>
-      </c>
-      <c r="V6" s="36">
-        <v>0.12320835143327701</v>
-      </c>
-      <c r="W6" s="36">
-        <v>8.6495868861675207E-2</v>
-      </c>
-      <c r="Y6" s="36">
-        <v>0.120385229587554</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>9.5674376785755105E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="I6" s="39">
+        <v>9.48961248397827E-2</v>
+      </c>
+      <c r="J6" s="39">
+        <v>9.6896124839782702E-2</v>
+      </c>
+      <c r="K6" s="39">
+        <v>9.2896124839782698E-2</v>
+      </c>
+      <c r="L6" s="38">
+        <v>9.0674376785755101E-2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.103160478174686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -2420,57 +2215,21 @@
       <c r="H7" s="17">
         <v>0.95125894248485499</v>
       </c>
-      <c r="I7" s="34">
-        <v>0.82830144464969602</v>
-      </c>
-      <c r="J7" s="34">
-        <v>0.86781883239746005</v>
-      </c>
-      <c r="K7" s="34">
-        <v>0.87996298819780305</v>
-      </c>
-      <c r="L7" s="34">
-        <v>0.86820442974567402</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35">
-        <f t="shared" si="0"/>
-        <v>0.86107192374765829</v>
-      </c>
-      <c r="O7" s="41">
-        <v>0.83445119857787997</v>
-      </c>
-      <c r="P7" s="41">
-        <v>0.87526407837867704</v>
-      </c>
-      <c r="Q7" s="41">
-        <v>0.86222971975803298</v>
-      </c>
-      <c r="R7" s="41">
-        <v>0.87793822586536396</v>
-      </c>
-      <c r="T7" s="41">
-        <f>AVERAGE(O7:S7)</f>
-        <v>0.86247080564498846</v>
-      </c>
-      <c r="U7" s="34">
-        <v>0.884153433144092</v>
-      </c>
-      <c r="V7" s="34">
-        <v>0.87448276579380002</v>
-      </c>
-      <c r="W7" s="34">
-        <v>0.84933581948280301</v>
-      </c>
-      <c r="Y7" s="34">
-        <v>0.85991512238979295</v>
-      </c>
-      <c r="Z7" s="44">
+      <c r="I7" s="17">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.94855894248485495</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="L7" s="37">
         <v>0.96325241029262498</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="44"/>
       <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
@@ -2481,60 +2240,24 @@
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="56">
+      <c r="H8" s="39">
         <v>3.4540437161922399E-2</v>
       </c>
-      <c r="I8" s="36">
-        <v>0.118060700595378</v>
-      </c>
-      <c r="J8" s="36">
-        <v>9.6477814018726293E-2</v>
-      </c>
-      <c r="K8" s="36">
-        <v>8.9917473495006506E-2</v>
-      </c>
-      <c r="L8" s="36">
-        <v>9.7500488162040697E-2</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37">
-        <f t="shared" si="0"/>
-        <v>0.10048911906778787</v>
-      </c>
-      <c r="O8" s="42">
-        <v>0.112971946597099</v>
-      </c>
-      <c r="P8" s="42">
-        <v>9.4868980348110199E-2</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>0.10110967606306</v>
-      </c>
-      <c r="R8" s="42">
-        <v>9.2467531561851501E-2</v>
-      </c>
-      <c r="T8" s="42">
-        <f>AVERAGE(O8:S8)</f>
-        <v>0.10035453364253018</v>
-      </c>
-      <c r="U8" s="36">
-        <v>8.9287899434566498E-2</v>
-      </c>
-      <c r="V8" s="36">
-        <v>9.2565760016441304E-2</v>
-      </c>
-      <c r="W8" s="36">
-        <v>0.106815062463283</v>
-      </c>
-      <c r="Y8" s="36">
-        <v>0.10184667259454699</v>
-      </c>
-      <c r="Z8" s="45">
+      <c r="I8" s="39">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J8" s="39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K8" s="39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L8" s="38">
         <v>2.33932510018348E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -2550,58 +2273,24 @@
       <c r="H9" s="17">
         <v>0.88121253997087401</v>
       </c>
-      <c r="I9" s="34">
-        <v>0.76638956367969502</v>
-      </c>
-      <c r="J9" s="34">
-        <v>0.84839338064193703</v>
-      </c>
-      <c r="K9" s="34">
-        <v>0.83068385720252902</v>
-      </c>
-      <c r="L9" s="34">
-        <v>0.809156134724617</v>
-      </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35">
-        <f t="shared" si="0"/>
-        <v>0.81365573406219449</v>
-      </c>
-      <c r="O9" s="41">
-        <v>0.80939482152461995</v>
-      </c>
-      <c r="P9" s="41">
-        <v>0.81302452087402299</v>
-      </c>
-      <c r="Q9" s="41">
-        <v>0.80450044572353296</v>
-      </c>
-      <c r="R9" s="41">
-        <v>0.84514316916465704</v>
-      </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41">
-        <f>AVERAGE(O9:S9)</f>
-        <v>0.81801573932170835</v>
-      </c>
-      <c r="U9" s="34">
-        <v>0.83194474875926905</v>
-      </c>
-      <c r="V9" s="34">
-        <v>0.83173631131648995</v>
-      </c>
-      <c r="W9" s="34">
-        <v>0.83173631131648995</v>
-      </c>
-      <c r="Y9" s="34">
-        <v>0.81913134455680803</v>
-      </c>
-      <c r="Z9" s="44">
-        <v>0.88947024285793297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
+      <c r="I9" s="17">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.87125399708740003</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.89947024285793298</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.86579406261444003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="44"/>
       <c r="B10" s="30" t="s">
         <v>7</v>
       </c>
@@ -2612,61 +2301,27 @@
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="56">
+      <c r="H10" s="39">
         <v>7.4802897870540605E-2</v>
       </c>
-      <c r="I10" s="36">
-        <v>0.13209502398967701</v>
-      </c>
-      <c r="J10" s="36">
-        <v>9.3867197632789598E-2</v>
-      </c>
-      <c r="K10" s="36">
-        <v>0.10090688616037299</v>
-      </c>
-      <c r="L10" s="36">
-        <v>0.108506880700588</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37">
-        <f t="shared" si="0"/>
-        <v>0.10884399712085691</v>
-      </c>
-      <c r="O10" s="42">
-        <v>0.10965263098478301</v>
-      </c>
-      <c r="P10" s="42">
-        <v>0.11045782268047299</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>0.11448482424020701</v>
-      </c>
-      <c r="R10" s="42">
-        <v>9.4945736229419694E-2</v>
-      </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42">
-        <f>AVERAGE(O10:S10)</f>
-        <v>0.10738525353372068</v>
-      </c>
-      <c r="U10" s="36">
-        <v>9.7452804446220398E-2</v>
-      </c>
-      <c r="V10" s="36">
-        <v>9.9530018866062095E-2</v>
-      </c>
-      <c r="W10" s="36">
-        <v>9.9530018866062095E-2</v>
-      </c>
-      <c r="Y10" s="36">
-        <v>0.10342943668365399</v>
-      </c>
-      <c r="Z10" s="45">
-        <v>7.6436897516250601E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+      <c r="I10" s="39">
+        <v>7.4802897870540605E-2</v>
+      </c>
+      <c r="J10" s="39">
+        <v>8.48028978705406E-2</v>
+      </c>
+      <c r="K10" s="39">
+        <v>7.2802897870540603E-2</v>
+      </c>
+      <c r="L10" s="38">
+        <v>6.6436897516250606E-2</v>
+      </c>
+      <c r="M10" s="25">
+        <v>8.0303370952606201E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -2682,57 +2337,24 @@
       <c r="H11" s="17">
         <v>0.89041186124086302</v>
       </c>
-      <c r="I11" s="34">
-        <v>0.72866430878639199</v>
-      </c>
-      <c r="J11" s="34">
-        <v>0.82495115697383803</v>
-      </c>
-      <c r="K11" s="34">
-        <v>0.80118586122989599</v>
-      </c>
-      <c r="L11" s="34">
-        <v>0.81819874048232999</v>
-      </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35">
-        <f t="shared" si="0"/>
-        <v>0.79325001686811403</v>
-      </c>
-      <c r="O11" s="41">
-        <v>0.79747794568538599</v>
-      </c>
-      <c r="P11" s="41">
-        <v>0.80304700136184604</v>
-      </c>
-      <c r="Q11" s="41">
-        <v>0.80575123429298401</v>
-      </c>
-      <c r="R11" s="41">
-        <v>0.82979017496108998</v>
-      </c>
-      <c r="T11" s="41">
-        <f>AVERAGE(O11:S11)</f>
-        <v>0.80901658907532648</v>
-      </c>
-      <c r="U11" s="34">
-        <v>0.82290534675121296</v>
-      </c>
-      <c r="V11" s="34">
-        <v>0.80907231569290095</v>
-      </c>
-      <c r="W11" s="34">
-        <v>0.80071045458316803</v>
-      </c>
-      <c r="Y11" s="34">
-        <v>0.82083575427532196</v>
-      </c>
-      <c r="Z11" s="44">
-        <v>0.89576138973235997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
+      <c r="I11" s="17">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.881861240863</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.90576138973235998</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.867534339427948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="44"/>
       <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
@@ -2743,60 +2365,27 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="56">
+      <c r="H12" s="39">
         <v>5.9486769139766603E-2</v>
       </c>
-      <c r="I12" s="36">
-        <v>0.136337339878082</v>
-      </c>
-      <c r="J12" s="36">
-        <v>8.8090837001800495E-2</v>
-      </c>
-      <c r="K12" s="36">
-        <v>9.7107909619808197E-2</v>
-      </c>
-      <c r="L12" s="36">
-        <v>9.2791803181171403E-2</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37">
-        <f t="shared" si="0"/>
-        <v>0.10358197242021552</v>
-      </c>
-      <c r="O12" s="42">
-        <v>0.10813267529010701</v>
-      </c>
-      <c r="P12" s="42">
-        <v>9.9893219769000993E-2</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>0.101568683981895</v>
-      </c>
-      <c r="R12" s="42">
-        <v>8.5551813244819599E-2</v>
-      </c>
-      <c r="T12" s="42">
-        <f t="shared" si="1"/>
-        <v>9.878659807145565E-2</v>
-      </c>
-      <c r="U12" s="36">
-        <v>8.8504336774349199E-2</v>
-      </c>
-      <c r="V12" s="36">
-        <v>0.100506424903869</v>
-      </c>
-      <c r="W12" s="36">
-        <v>0.10070235282182601</v>
-      </c>
-      <c r="Y12" s="36">
-        <v>9.3370720744132996E-2</v>
-      </c>
-      <c r="Z12" s="45">
-        <v>5.6048525273799901E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+      <c r="I12" s="39">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J12" s="39">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K12" s="39">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L12" s="38">
+        <v>5.0048525273799903E-2</v>
+      </c>
+      <c r="M12" s="25">
+        <v>6.8398542702198001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -2811,52 +2400,26 @@
         <f>AVERAGE(H3,H5,H7,H9,H11)</f>
         <v>0.88535380065441061</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34">
-        <f>AVERAGE(N3,N5,N7,N9,N11)</f>
-        <v>0.80791260562837086</v>
-      </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41">
-        <f t="shared" ref="T13:Z13" si="2">AVERAGE(T3,T5,T7,T9,T11)</f>
-        <v>0.81610571667551957</v>
-      </c>
-      <c r="U13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82990049570798841</v>
-      </c>
-      <c r="V13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82248646616935694</v>
-      </c>
-      <c r="W13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82625353038310989</v>
-      </c>
-      <c r="X13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82251240313053098</v>
-      </c>
-      <c r="Y13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.81971961259841886</v>
-      </c>
-      <c r="Z13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.8928791255950923</v>
-      </c>
-      <c r="AA13" s="44"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
+      <c r="I13" s="29">
+        <f t="shared" ref="I13:L13" si="0">AVERAGE(I3,I5,I7,I9,I11)</f>
+        <v>0.88650000000000007</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" si="0"/>
+        <v>0.87517483608705093</v>
+      </c>
+      <c r="K13" s="29">
+        <f>AVERAGE(K3,K5,K7,K9,K11)</f>
+        <v>0.89260000000000006</v>
+      </c>
+      <c r="L13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.90087912559509231</v>
+      </c>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="44"/>
       <c r="B14" s="30" t="s">
         <v>7</v>
       </c>
@@ -2869,114 +2432,79 @@
         <f>AVERAGE(H4,H6,H8,H10,H12)</f>
         <v>6.9504417479038197E-2</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36">
-        <f>AVERAGE(N4,N6,N8,N10,N12)</f>
-        <v>0.11111515983939131</v>
-      </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42">
-        <f t="shared" ref="T14:Z14" si="3">AVERAGE(T4,T6,T8,T10,T12)</f>
-        <v>0.10848100781440703</v>
-      </c>
-      <c r="U14" s="42">
-        <f t="shared" si="3"/>
-        <v>9.9045450985431424E-2</v>
-      </c>
-      <c r="V14" s="42">
-        <f t="shared" si="3"/>
-        <v>0.10534830689430208</v>
-      </c>
-      <c r="W14" s="42">
-        <f t="shared" si="3"/>
-        <v>9.9028809368610055E-2</v>
-      </c>
-      <c r="X14" s="42">
-        <f t="shared" si="3"/>
-        <v>0.10481353849172501</v>
-      </c>
-      <c r="Y14" s="42">
-        <f t="shared" si="3"/>
-        <v>0.10520265549421259</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="3"/>
-        <v>6.6809877765178632E-2</v>
-      </c>
-      <c r="AA14" s="37"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I15" s="34"/>
-      <c r="O15" s="41"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I16" s="36"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I17" s="34"/>
-      <c r="O17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="U17" s="34"/>
-    </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I18" s="36"/>
-      <c r="O18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="U18" s="36"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I19" s="34"/>
-      <c r="O19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="U19" s="34"/>
-    </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I20" s="36"/>
-      <c r="O20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="U20" s="36"/>
-    </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I21" s="34"/>
-      <c r="O21" s="41"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I22" s="36"/>
-      <c r="O22" s="42"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I23" s="34"/>
-      <c r="O23" s="41"/>
-      <c r="Q23" s="41"/>
-    </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I24" s="36"/>
-      <c r="O24" s="42"/>
-      <c r="Q24" s="42"/>
-    </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="Q25" s="41"/>
-    </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="Q26" s="42"/>
+      <c r="I14" s="31">
+        <f t="shared" ref="I14:L14" si="1">AVERAGE(I4,I6,I8,I10,I12)</f>
+        <v>6.8898976218700406E-2</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="1"/>
+        <v>7.3098976218700401E-2</v>
+      </c>
+      <c r="K14" s="31">
+        <f>AVERAGE(K4,K6,K8,K10,K12)</f>
+        <v>6.6298976218700401E-2</v>
+      </c>
+      <c r="L14" s="36">
+        <f t="shared" si="1"/>
+        <v>6.1809877765178635E-2</v>
+      </c>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="19" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="R19" s="17"/>
+    </row>
+    <row r="20" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M20" s="17"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M21" s="39"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M22" s="17"/>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M23" s="39"/>
+      <c r="R23" s="17"/>
+    </row>
+    <row r="24" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M24" s="17"/>
+      <c r="R24" s="39"/>
+    </row>
+    <row r="25" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M25" s="39"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M26" s="17"/>
+      <c r="R26" s="39"/>
+    </row>
+    <row r="27" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M27" s="39"/>
+      <c r="R27" s="17"/>
+    </row>
+    <row r="28" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M28" s="17"/>
+      <c r="R28" s="39"/>
+    </row>
+    <row r="29" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M29" s="39"/>
+      <c r="R29" s="29"/>
+    </row>
+    <row r="30" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M30" s="29"/>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="13:18" x14ac:dyDescent="0.4">
+      <c r="M31" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="I1:N1"/>
+  <mergeCells count="8">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
@@ -3003,20 +2531,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="53"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="13" t="s">
         <v>23</v>
       </c>

--- a/result/多源域迁移算法对比.xlsx
+++ b/result/多源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBF537-094A-4031-A0EB-2DD3CB63BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18782FD4-DEF9-4524-AD5E-5D7F2BB0EA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="模型直接泛化能力" sheetId="3" r:id="rId3"/>
     <sheet name="聚簇分析" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>方法\指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,26 +188,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FS-DANN</t>
+  </si>
+  <si>
+    <t>实验二</t>
+  </si>
+  <si>
+    <t>实验三</t>
+  </si>
+  <si>
+    <t>实验四</t>
+  </si>
+  <si>
     <t>FDW-DANN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +270,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +303,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -346,11 +369,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,41 +476,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -509,7 +521,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,42 +885,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="47"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="A2" s="41"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -896,7 +959,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -964,7 +1027,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1000,7 +1063,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1036,7 +1099,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="47"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1102,7 +1165,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1138,7 +1201,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1258,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1239,7 +1302,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1281,7 +1344,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1320,7 +1383,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1389,7 +1452,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1428,7 +1491,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1482,7 +1545,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1523,7 +1586,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1562,7 +1625,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1601,7 +1664,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1640,7 +1703,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1679,7 +1742,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1796,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1774,7 +1837,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1813,7 +1876,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1849,7 +1912,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1885,7 +1948,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1921,7 +1984,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1996,13 +2059,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2010,58 +2073,42 @@
     <col min="1" max="1" width="17.06640625" style="25" customWidth="1"/>
     <col min="2" max="2" width="14.06640625" style="25" customWidth="1"/>
     <col min="3" max="7" width="9.06640625" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" style="25" customWidth="1"/>
-    <col min="9" max="12" width="9.06640625" style="38" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" style="38" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" style="38" customWidth="1"/>
-    <col min="15" max="18" width="9.06640625" style="43" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.46484375" style="43" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.73046875" style="43" customWidth="1"/>
-    <col min="21" max="24" width="9.06640625" style="38" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.46484375" style="38" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.9296875" style="38" customWidth="1"/>
-    <col min="27" max="16384" width="9.06640625" style="25"/>
+    <col min="8" max="9" width="12.53125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.9296875" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:14" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51" t="s">
+      <c r="K1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-    </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
@@ -2084,57 +2131,27 @@
       <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32">
-        <v>1</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32">
-        <v>4</v>
-      </c>
-      <c r="M2" s="33">
-        <v>5</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="I2" s="50">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="J2" s="50">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="K2" s="50">
+        <v>0.8488</v>
+      </c>
+      <c r="L2" s="51">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="M2" s="52">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="39">
-        <v>1</v>
-      </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39">
-        <v>3</v>
-      </c>
-      <c r="R2" s="39">
-        <v>4</v>
-      </c>
-      <c r="S2" s="40">
-        <v>5</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="32">
-        <v>1</v>
-      </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32">
-        <v>3</v>
-      </c>
-      <c r="X2" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="33">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -2150,61 +2167,25 @@
       <c r="H3" s="17">
         <v>0.86463844776153498</v>
       </c>
-      <c r="I3" s="34">
-        <v>0.73473906517028797</v>
-      </c>
-      <c r="J3" s="34">
-        <v>0.82946909964084603</v>
-      </c>
-      <c r="K3" s="34">
-        <v>0.83141124248504605</v>
-      </c>
-      <c r="L3" s="34">
-        <v>0.80450080335140195</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35">
-        <f t="shared" ref="N3:N12" si="0">AVERAGE(I3:M3)</f>
-        <v>0.80003005266189542</v>
-      </c>
-      <c r="O3" s="41">
-        <v>0.81128679215907995</v>
-      </c>
-      <c r="P3" s="41">
-        <v>0.81846974790096205</v>
-      </c>
-      <c r="Q3" s="41">
-        <v>0.78825367987155903</v>
-      </c>
-      <c r="R3" s="41">
-        <v>0.83287416398525205</v>
-      </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41">
-        <f>AVERAGE(O3:S3)</f>
-        <v>0.81272109597921327</v>
-      </c>
-      <c r="U3" s="34">
-        <v>0.81821550428867296</v>
-      </c>
-      <c r="V3" s="34">
-        <v>0.81057986617088296</v>
-      </c>
-      <c r="W3" s="34">
-        <v>0.82680846750736203</v>
-      </c>
-      <c r="X3" s="34">
-        <v>0.82251240313053098</v>
-      </c>
-      <c r="Y3" s="34">
-        <v>0.80669140815734797</v>
-      </c>
-      <c r="Z3" s="44">
-        <v>0.86985698759555796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
+      <c r="I3" s="59">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="J3" s="59">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="K3" s="59">
+        <v>0.8488</v>
+      </c>
+      <c r="L3" s="60">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="M3" s="61">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="42"/>
       <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
@@ -2215,64 +2196,28 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="56">
+      <c r="H4" s="39">
         <v>8.2795858383178697E-2</v>
       </c>
-      <c r="I4" s="36">
-        <v>0.14244391024112699</v>
-      </c>
-      <c r="J4" s="36">
-        <v>0.100569583475589</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0.103497587144374</v>
-      </c>
-      <c r="L4" s="36">
-        <v>0.108866535127162</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37">
-        <f t="shared" si="0"/>
-        <v>0.113844403997063</v>
-      </c>
-      <c r="O4" s="42">
-        <v>0.110524982213974</v>
-      </c>
-      <c r="P4" s="42">
-        <v>0.113219298422336</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>0.117301158607006</v>
-      </c>
-      <c r="R4" s="42">
-        <v>9.8519250750541604E-2</v>
-      </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42">
-        <f>AVERAGE(O4:S4)</f>
-        <v>0.10989117249846439</v>
-      </c>
-      <c r="U4" s="36">
-        <v>0.102587327361106</v>
-      </c>
-      <c r="V4" s="36">
-        <v>0.110930979251861</v>
-      </c>
-      <c r="W4" s="36">
-        <v>0.101600743830204</v>
-      </c>
-      <c r="X4" s="36">
-        <v>0.10481353849172501</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>0.106981217861175</v>
-      </c>
-      <c r="Z4" s="45">
-        <v>8.2496338248252796E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="48" t="s">
+      <c r="I4" s="53">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J4" s="53">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K4" s="53">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L4" s="54">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M4" s="55">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -2288,58 +2233,25 @@
       <c r="H5" s="17">
         <v>0.83924721181392603</v>
       </c>
-      <c r="I5" s="34">
-        <v>0.71656578779220503</v>
-      </c>
-      <c r="J5" s="34">
-        <v>0.797238528728485</v>
-      </c>
-      <c r="K5" s="34">
-        <v>0.78716611862182595</v>
-      </c>
-      <c r="L5" s="34">
-        <v>0.78525076806545202</v>
-      </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35">
-        <f t="shared" si="0"/>
-        <v>0.77155530080199208</v>
-      </c>
-      <c r="O5" s="41">
-        <v>0.76618267595767897</v>
-      </c>
-      <c r="P5" s="41">
-        <v>0.78478713333606698</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>0.76940141618251801</v>
-      </c>
-      <c r="R5" s="41">
-        <v>0.79284618794918005</v>
-      </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41">
-        <f t="shared" ref="T5:T12" si="1">AVERAGE(O5:S5)</f>
-        <v>0.77830435335636106</v>
-      </c>
-      <c r="U5" s="34">
-        <v>0.79228344559669495</v>
-      </c>
-      <c r="V5" s="34">
-        <v>0.78656107187271096</v>
-      </c>
-      <c r="W5" s="34">
-        <v>0.82267659902572599</v>
-      </c>
-      <c r="Y5" s="34">
-        <v>0.79202443361282304</v>
-      </c>
-      <c r="Z5" s="44">
-        <v>0.84605459749698597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
+      <c r="I5" s="50">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="L5" s="51">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="M5" s="63">
+        <v>0.87508912384509996</v>
+      </c>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="42"/>
       <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
@@ -2350,61 +2262,28 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="56">
+      <c r="H6" s="39">
         <v>9.5896124839782701E-2</v>
       </c>
-      <c r="I6" s="36">
-        <v>0.151442125439643</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0.11820410192012699</v>
-      </c>
-      <c r="K6" s="36">
-        <v>0.123568385839462</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0.122050613164901</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37">
-        <f t="shared" si="0"/>
-        <v>0.12881630659103324</v>
-      </c>
-      <c r="O6" s="42">
-        <v>0.13441099226474701</v>
-      </c>
-      <c r="P6" s="42">
-        <v>0.122921638190746</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>0.127876281738281</v>
-      </c>
-      <c r="R6" s="42">
-        <v>0.11874101310968301</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42">
-        <f t="shared" si="1"/>
-        <v>0.12598748132586426</v>
-      </c>
-      <c r="U6" s="36">
-        <v>0.117394886910915</v>
-      </c>
-      <c r="V6" s="36">
-        <v>0.12320835143327701</v>
-      </c>
-      <c r="W6" s="36">
-        <v>8.6495868861675207E-2</v>
-      </c>
-      <c r="Y6" s="36">
-        <v>0.120385229587554</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>9.5674376785755105E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="I6" s="53">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J6" s="53">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K6" s="53">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L6" s="54">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="M6" s="65">
+        <v>6.6970735788345295E-2</v>
+      </c>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -2420,57 +2299,25 @@
       <c r="H7" s="17">
         <v>0.95125894248485499</v>
       </c>
-      <c r="I7" s="34">
-        <v>0.82830144464969602</v>
-      </c>
-      <c r="J7" s="34">
-        <v>0.86781883239746005</v>
-      </c>
-      <c r="K7" s="34">
-        <v>0.87996298819780305</v>
-      </c>
-      <c r="L7" s="34">
-        <v>0.86820442974567402</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35">
-        <f t="shared" si="0"/>
-        <v>0.86107192374765829</v>
-      </c>
-      <c r="O7" s="41">
-        <v>0.83445119857787997</v>
-      </c>
-      <c r="P7" s="41">
-        <v>0.87526407837867704</v>
-      </c>
-      <c r="Q7" s="41">
-        <v>0.86222971975803298</v>
-      </c>
-      <c r="R7" s="41">
-        <v>0.87793822586536396</v>
-      </c>
-      <c r="T7" s="41">
-        <f>AVERAGE(O7:S7)</f>
-        <v>0.86247080564498846</v>
-      </c>
-      <c r="U7" s="34">
-        <v>0.884153433144092</v>
-      </c>
-      <c r="V7" s="34">
-        <v>0.87448276579380002</v>
-      </c>
-      <c r="W7" s="34">
-        <v>0.84933581948280301</v>
-      </c>
-      <c r="Y7" s="34">
-        <v>0.85991512238979295</v>
-      </c>
-      <c r="Z7" s="44">
-        <v>0.96325241029262498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
+      <c r="I7" s="50">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0.9486</v>
+      </c>
+      <c r="L7" s="51">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="M7" s="63">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="42"/>
       <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
@@ -2481,60 +2328,28 @@
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="56">
+      <c r="H8" s="39">
         <v>3.4540437161922399E-2</v>
       </c>
-      <c r="I8" s="36">
-        <v>0.118060700595378</v>
-      </c>
-      <c r="J8" s="36">
-        <v>9.6477814018726293E-2</v>
-      </c>
-      <c r="K8" s="36">
-        <v>8.9917473495006506E-2</v>
-      </c>
-      <c r="L8" s="36">
-        <v>9.7500488162040697E-2</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37">
-        <f t="shared" si="0"/>
-        <v>0.10048911906778787</v>
-      </c>
-      <c r="O8" s="42">
-        <v>0.112971946597099</v>
-      </c>
-      <c r="P8" s="42">
-        <v>9.4868980348110199E-2</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>0.10110967606306</v>
-      </c>
-      <c r="R8" s="42">
-        <v>9.2467531561851501E-2</v>
-      </c>
-      <c r="T8" s="42">
-        <f>AVERAGE(O8:S8)</f>
-        <v>0.10035453364253018</v>
-      </c>
-      <c r="U8" s="36">
-        <v>8.9287899434566498E-2</v>
-      </c>
-      <c r="V8" s="36">
-        <v>9.2565760016441304E-2</v>
-      </c>
-      <c r="W8" s="36">
-        <v>0.106815062463283</v>
-      </c>
-      <c r="Y8" s="36">
-        <v>0.10184667259454699</v>
-      </c>
-      <c r="Z8" s="45">
-        <v>2.33932510018348E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
+      <c r="I8" s="53">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J8" s="53">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K8" s="53">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L8" s="54">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M8" s="64">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -2550,58 +2365,25 @@
       <c r="H9" s="17">
         <v>0.88121253997087401</v>
       </c>
-      <c r="I9" s="34">
-        <v>0.76638956367969502</v>
-      </c>
-      <c r="J9" s="34">
-        <v>0.84839338064193703</v>
-      </c>
-      <c r="K9" s="34">
-        <v>0.83068385720252902</v>
-      </c>
-      <c r="L9" s="34">
-        <v>0.809156134724617</v>
-      </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35">
-        <f t="shared" si="0"/>
-        <v>0.81365573406219449</v>
-      </c>
-      <c r="O9" s="41">
-        <v>0.80939482152461995</v>
-      </c>
-      <c r="P9" s="41">
-        <v>0.81302452087402299</v>
-      </c>
-      <c r="Q9" s="41">
-        <v>0.80450044572353296</v>
-      </c>
-      <c r="R9" s="41">
-        <v>0.84514316916465704</v>
-      </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41">
-        <f>AVERAGE(O9:S9)</f>
-        <v>0.81801573932170835</v>
-      </c>
-      <c r="U9" s="34">
-        <v>0.83194474875926905</v>
-      </c>
-      <c r="V9" s="34">
-        <v>0.83173631131648995</v>
-      </c>
-      <c r="W9" s="34">
-        <v>0.83173631131648995</v>
-      </c>
-      <c r="Y9" s="34">
-        <v>0.81913134455680803</v>
-      </c>
-      <c r="Z9" s="44">
-        <v>0.88947024285793297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
+      <c r="I9" s="50">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="K9" s="50">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="L9" s="51">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="M9" s="52">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="42"/>
       <c r="B10" s="30" t="s">
         <v>7</v>
       </c>
@@ -2612,61 +2394,28 @@
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="56">
+      <c r="H10" s="39">
         <v>7.4802897870540605E-2</v>
       </c>
-      <c r="I10" s="36">
-        <v>0.13209502398967701</v>
-      </c>
-      <c r="J10" s="36">
-        <v>9.3867197632789598E-2</v>
-      </c>
-      <c r="K10" s="36">
-        <v>0.10090688616037299</v>
-      </c>
-      <c r="L10" s="36">
-        <v>0.108506880700588</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37">
-        <f t="shared" si="0"/>
-        <v>0.10884399712085691</v>
-      </c>
-      <c r="O10" s="42">
-        <v>0.10965263098478301</v>
-      </c>
-      <c r="P10" s="42">
-        <v>0.11045782268047299</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>0.11448482424020701</v>
-      </c>
-      <c r="R10" s="42">
-        <v>9.4945736229419694E-2</v>
-      </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42">
-        <f>AVERAGE(O10:S10)</f>
-        <v>0.10738525353372068</v>
-      </c>
-      <c r="U10" s="36">
-        <v>9.7452804446220398E-2</v>
-      </c>
-      <c r="V10" s="36">
-        <v>9.9530018866062095E-2</v>
-      </c>
-      <c r="W10" s="36">
-        <v>9.9530018866062095E-2</v>
-      </c>
-      <c r="Y10" s="36">
-        <v>0.10342943668365399</v>
-      </c>
-      <c r="Z10" s="45">
-        <v>7.6436897516250601E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+      <c r="I10" s="53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J10" s="53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K10" s="53">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L10" s="54">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M10" s="55">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -2682,57 +2431,25 @@
       <c r="H11" s="17">
         <v>0.89041186124086302</v>
       </c>
-      <c r="I11" s="34">
-        <v>0.72866430878639199</v>
-      </c>
-      <c r="J11" s="34">
-        <v>0.82495115697383803</v>
-      </c>
-      <c r="K11" s="34">
-        <v>0.80118586122989599</v>
-      </c>
-      <c r="L11" s="34">
-        <v>0.81819874048232999</v>
-      </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35">
-        <f t="shared" si="0"/>
-        <v>0.79325001686811403</v>
-      </c>
-      <c r="O11" s="41">
-        <v>0.79747794568538599</v>
-      </c>
-      <c r="P11" s="41">
-        <v>0.80304700136184604</v>
-      </c>
-      <c r="Q11" s="41">
-        <v>0.80575123429298401</v>
-      </c>
-      <c r="R11" s="41">
-        <v>0.82979017496108998</v>
-      </c>
-      <c r="T11" s="41">
-        <f>AVERAGE(O11:S11)</f>
-        <v>0.80901658907532648</v>
-      </c>
-      <c r="U11" s="34">
-        <v>0.82290534675121296</v>
-      </c>
-      <c r="V11" s="34">
-        <v>0.80907231569290095</v>
-      </c>
-      <c r="W11" s="34">
-        <v>0.80071045458316803</v>
-      </c>
-      <c r="Y11" s="34">
-        <v>0.82083575427532196</v>
-      </c>
-      <c r="Z11" s="44">
-        <v>0.89576138973235997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
+      <c r="I11" s="50">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="K11" s="50">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="L11" s="51">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="M11" s="52">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="42"/>
       <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
@@ -2743,60 +2460,28 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="56">
+      <c r="H12" s="39">
         <v>5.9486769139766603E-2</v>
       </c>
-      <c r="I12" s="36">
-        <v>0.136337339878082</v>
-      </c>
-      <c r="J12" s="36">
-        <v>8.8090837001800495E-2</v>
-      </c>
-      <c r="K12" s="36">
-        <v>9.7107909619808197E-2</v>
-      </c>
-      <c r="L12" s="36">
-        <v>9.2791803181171403E-2</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37">
-        <f t="shared" si="0"/>
-        <v>0.10358197242021552</v>
-      </c>
-      <c r="O12" s="42">
-        <v>0.10813267529010701</v>
-      </c>
-      <c r="P12" s="42">
-        <v>9.9893219769000993E-2</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>0.101568683981895</v>
-      </c>
-      <c r="R12" s="42">
-        <v>8.5551813244819599E-2</v>
-      </c>
-      <c r="T12" s="42">
-        <f t="shared" si="1"/>
-        <v>9.878659807145565E-2</v>
-      </c>
-      <c r="U12" s="36">
-        <v>8.8504336774349199E-2</v>
-      </c>
-      <c r="V12" s="36">
-        <v>0.100506424903869</v>
-      </c>
-      <c r="W12" s="36">
-        <v>0.10070235282182601</v>
-      </c>
-      <c r="Y12" s="36">
-        <v>9.3370720744132996E-2</v>
-      </c>
-      <c r="Z12" s="45">
-        <v>5.6048525273799901E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+      <c r="I12" s="53">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J12" s="53">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K12" s="53">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L12" s="54">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M12" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -2811,52 +2496,26 @@
         <f>AVERAGE(H3,H5,H7,H9,H11)</f>
         <v>0.88535380065441061</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34">
-        <f>AVERAGE(N3,N5,N7,N9,N11)</f>
-        <v>0.80791260562837086</v>
-      </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41">
-        <f t="shared" ref="T13:Z13" si="2">AVERAGE(T3,T5,T7,T9,T11)</f>
-        <v>0.81610571667551957</v>
-      </c>
-      <c r="U13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82990049570798841</v>
-      </c>
-      <c r="V13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82248646616935694</v>
-      </c>
-      <c r="W13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82625353038310989</v>
-      </c>
-      <c r="X13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.82251240313053098</v>
-      </c>
-      <c r="Y13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.81971961259841886</v>
-      </c>
-      <c r="Z13" s="41">
-        <f t="shared" si="2"/>
-        <v>0.8928791255950923</v>
-      </c>
-      <c r="AA13" s="44"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
+      <c r="I13" s="17">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="K13" s="50">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="L13" s="51">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="M13" s="52">
+        <f>AVERAGE(M3,M5,M7,M9,M11)</f>
+        <v>0.90471782476901996</v>
+      </c>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="42"/>
       <c r="B14" s="30" t="s">
         <v>7</v>
       </c>
@@ -2869,119 +2528,35 @@
         <f>AVERAGE(H4,H6,H8,H10,H12)</f>
         <v>6.9504417479038197E-2</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36">
-        <f>AVERAGE(N4,N6,N8,N10,N12)</f>
-        <v>0.11111515983939131</v>
-      </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42">
-        <f t="shared" ref="T14:Z14" si="3">AVERAGE(T4,T6,T8,T10,T12)</f>
-        <v>0.10848100781440703</v>
-      </c>
-      <c r="U14" s="42">
-        <f t="shared" si="3"/>
-        <v>9.9045450985431424E-2</v>
-      </c>
-      <c r="V14" s="42">
-        <f t="shared" si="3"/>
-        <v>0.10534830689430208</v>
-      </c>
-      <c r="W14" s="42">
-        <f t="shared" si="3"/>
-        <v>9.9028809368610055E-2</v>
-      </c>
-      <c r="X14" s="42">
-        <f t="shared" si="3"/>
-        <v>0.10481353849172501</v>
-      </c>
-      <c r="Y14" s="42">
-        <f t="shared" si="3"/>
-        <v>0.10520265549421259</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="3"/>
-        <v>6.6809877765178632E-2</v>
-      </c>
-      <c r="AA14" s="37"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I15" s="34"/>
-      <c r="O15" s="41"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I16" s="36"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I17" s="34"/>
-      <c r="O17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="U17" s="34"/>
-    </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I18" s="36"/>
-      <c r="O18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="U18" s="36"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I19" s="34"/>
-      <c r="O19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="U19" s="34"/>
-    </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I20" s="36"/>
-      <c r="O20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="U20" s="36"/>
-    </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I21" s="34"/>
-      <c r="O21" s="41"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I22" s="36"/>
-      <c r="O22" s="42"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I23" s="34"/>
-      <c r="O23" s="41"/>
-      <c r="Q23" s="41"/>
-    </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="I24" s="36"/>
-      <c r="O24" s="42"/>
-      <c r="Q24" s="42"/>
-    </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="Q25" s="41"/>
-    </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.4">
-      <c r="Q26" s="42"/>
-    </row>
+      <c r="I14" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14" s="57">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K14" s="57">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L14" s="58">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M14" s="62">
+        <f>AVERAGE(M4,M6,M8,M10,M12)</f>
+        <v>5.6794147157669062E-2</v>
+      </c>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="O1:T1"/>
+  <mergeCells count="8">
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3003,20 +2578,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="53"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
